--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_265.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_265.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g580458-d472269-Reviews-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_California.html</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>129</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Valencia.h522129.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_265.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_265.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="648">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1872 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r584415761-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>580458</t>
+  </si>
+  <si>
+    <t>472269</t>
+  </si>
+  <si>
+    <t>584415761</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Way Overpriced for this OLD place.</t>
+  </si>
+  <si>
+    <t>I was very disappointed in the quality of this place compared to the price that I paid.  It is quite old, and could use some updating.  The faucet dripped, the toilet paper roll wouldn't stay attached to the holder, the full kitchenette is EMPTY (you have to request plates, plasticware and other items specifically).  We arrived late at night, when I woke up, I wanted to make a cup of tea, but there wasn't anything in the cabinets!  I was shocked!!  Because of the faucet drip, the drain was quite rusted and looked nasty.  Due to the age, things just seemed dirty.  The wifi was out for at least 5 hours during our stay (I don't know actually how long it was out cuz we weren't in the room all day).  I opened the curtains for some light in the morning and was greeted by several people smoking.  The smoking area was right outside our window on the first floor.  Had to keep the curtains closed at all times, therefore the room was always dark.  There are plenty of other places within a block or two that looked much nicer.  Don't spend your money here!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I was very disappointed in the quality of this place compared to the price that I paid.  It is quite old, and could use some updating.  The faucet dripped, the toilet paper roll wouldn't stay attached to the holder, the full kitchenette is EMPTY (you have to request plates, plasticware and other items specifically).  We arrived late at night, when I woke up, I wanted to make a cup of tea, but there wasn't anything in the cabinets!  I was shocked!!  Because of the faucet drip, the drain was quite rusted and looked nasty.  Due to the age, things just seemed dirty.  The wifi was out for at least 5 hours during our stay (I don't know actually how long it was out cuz we weren't in the room all day).  I opened the curtains for some light in the morning and was greeted by several people smoking.  The smoking area was right outside our window on the first floor.  Had to keep the curtains closed at all times, therefore the room was always dark.  There are plenty of other places within a block or two that looked much nicer.  Don't spend your money here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r583177783-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>583177783</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Adequate for extended stay.</t>
+  </si>
+  <si>
+    <t>Staff was friendly and responsive.  Room was spartan but clean and comfortable.   Top floor end room location was quiet, opposite side from the nearby freeway and businesses.  Older hotel but adequately maintained.Breakfast was minimal but CoCo's is next door.  Coffee was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Staff was friendly and responsive.  Room was spartan but clean and comfortable.   Top floor end room location was quiet, opposite side from the nearby freeway and businesses.  Older hotel but adequately maintained.Breakfast was minimal but CoCo's is next door.  Coffee was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r560928261-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>560928261</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>Way overpriced</t>
+  </si>
+  <si>
+    <t>The laundry dryers only work if toss 4 dollars of quarters in them for 1.5 hours. Washers are fine, 28 minutes. Rooms are clean and beds comfortable. Can get much better hotels just a couple miles away. Stayed 1 week and only because i had already paid up front. Here for a job and they charged double the price we now pay at a nicer hotel. Would not even consider this place in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded February 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2018</t>
+  </si>
+  <si>
+    <t>The laundry dryers only work if toss 4 dollars of quarters in them for 1.5 hours. Washers are fine, 28 minutes. Rooms are clean and beds comfortable. Can get much better hotels just a couple miles away. Stayed 1 week and only because i had already paid up front. Here for a job and they charged double the price we now pay at a nicer hotel. Would not even consider this place in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r546636598-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>546636598</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>2 day trip.</t>
+  </si>
+  <si>
+    <t>Needs ice machines, carpet needs redone, doors have scratches, slow elevator, beds feel hard and a bit run down, the hallway had a very strong odor to it like food and the walls are a bit hollow where can hear your neighbor. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Needs ice machines, carpet needs redone, doors have scratches, slow elevator, beds feel hard and a bit run down, the hallway had a very strong odor to it like food and the walls are a bit hollow where can hear your neighbor. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r544150568-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>544150568</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Clean and Comfy</t>
+  </si>
+  <si>
+    <t>Clean and comfy place near lots of restaurants and shopping. Beds are smaller than I expected, but nice anyhow. Staff is helpful and kind. Best to book directly with hotel as to not have any misunderstanding with pricing.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Clean and comfy place near lots of restaurants and shopping. Beds are smaller than I expected, but nice anyhow. Staff is helpful and kind. Best to book directly with hotel as to not have any misunderstanding with pricing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r541898405-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>541898405</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Wouldn't Recommend</t>
+  </si>
+  <si>
+    <t>My room wasn't very clean upon arrival and the hotel staff seemed annoyed when I asked to switch rooms. While the kitchen is nice to have it's older and heavily used. Online it said pets stay for free but there is a charge. It is nice and close to restaurants and grocery stores.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2017</t>
+  </si>
+  <si>
+    <t>My room wasn't very clean upon arrival and the hotel staff seemed annoyed when I asked to switch rooms. While the kitchen is nice to have it's older and heavily used. Online it said pets stay for free but there is a charge. It is nice and close to restaurants and grocery stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r523854274-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>523854274</t>
+  </si>
+  <si>
+    <t>09/12/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay America - Los Angeles Valencia - Joseph Ricks Review</t>
+  </si>
+  <si>
+    <t>Serivice at the hotel is good and the staff is very attentive to your needs. The non-smoking rooms are great because I don't smoke and smoke tends to linger in areas where smokers have been. My only recommendations is that (1) for breakfast, they provide something a liitle more substantial for breakfast in the morning rather than muffins and breakfast bars; and (2) they offer more cable channels on the tv.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Serivice at the hotel is good and the staff is very attentive to your needs. The non-smoking rooms are great because I don't smoke and smoke tends to linger in areas where smokers have been. My only recommendations is that (1) for breakfast, they provide something a liitle more substantial for breakfast in the morning rather than muffins and breakfast bars; and (2) they offer more cable channels on the tv.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r523602739-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>523602739</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Thanks</t>
+  </si>
+  <si>
+    <t>Latest visit. All the front desk people are most accommodating and pleasant especially Edna, Yasmine and Jessica. More staff to be at the front desk would be beneficial since there are times no one is there to monitor comings and goings. The property exterior needs better maintenance and security cameras in the parking areas would be appreciated. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Latest visit. All the front desk people are most accommodating and pleasant especially Edna, Yasmine and Jessica. More staff to be at the front desk would be beneficial since there are times no one is there to monitor comings and goings. The property exterior needs better maintenance and security cameras in the parking areas would be appreciated. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r522047704-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>522047704</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>It works</t>
+  </si>
+  <si>
+    <t>Needed a inexpensive place to stay to avoid a long commute for work. It was clean. Friendly front desk.  A good thing is it is next to a Cocos restaurant and across the streeet from a shopping center with many food options within a mile of hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Needed a inexpensive place to stay to avoid a long commute for work. It was clean. Friendly front desk.  A good thing is it is next to a Cocos restaurant and across the streeet from a shopping center with many food options within a mile of hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r504453073-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>504453073</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Clean, friendly staff, great stay. Loved that I could wash my clothes and it had a refrigerator and microwave. Good area</t>
+  </si>
+  <si>
+    <t>Great stay good area close to Magic Mountain Sixflags and drivable to Universal Studios Hollywood.  I washed clothes that was nice some places I've stay you didn't have to pay to use the washer/ dryer but there was a change for both and that's not including your detergent. I like that there was a working kitchen. Felt like a little home. Overall great stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Great stay good area close to Magic Mountain Sixflags and drivable to Universal Studios Hollywood.  I washed clothes that was nice some places I've stay you didn't have to pay to use the washer/ dryer but there was a change for both and that's not including your detergent. I like that there was a working kitchen. Felt like a little home. Overall great stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r503022081-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>503022081</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>A very nice place</t>
+  </si>
+  <si>
+    <t>This Extended Stay was very nice the hotel staff was very pleasant and accommodating. The cleanliness and service was very good. In walking distance to grocery store and restaurants, the area is very nice and I felt very safe and this area. I never had to fight for a parking spot there was plenty of parking it is one of the quieter hotels that I've stayed at and quite some time I highly recommend this Extended StayMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>This Extended Stay was very nice the hotel staff was very pleasant and accommodating. The cleanliness and service was very good. In walking distance to grocery store and restaurants, the area is very nice and I felt very safe and this area. I never had to fight for a parking spot there was plenty of parking it is one of the quieter hotels that I've stayed at and quite some time I highly recommend this Extended StayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r501047535-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>501047535</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Bring back fruit in the morning! Edna, Jessica and David are remarkable. They definitely understand the definition of customer service. Rooms are ok, hotel was ok with cleanliness but could be better.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Bring back fruit in the morning! Edna, Jessica and David are remarkable. They definitely understand the definition of customer service. Rooms are ok, hotel was ok with cleanliness but could be better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r497828380-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>497828380</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>This place is an awesome home away from home</t>
+  </si>
+  <si>
+    <t>This place is awesome. Clean, comfortable, and friendly, and now 100% smoke free. The staff are super helpful, too. I chose this place because it is the only affordable option with a full kitchen, but I would stay here now regardless of whether I needed the kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>This place is awesome. Clean, comfortable, and friendly, and now 100% smoke free. The staff are super helpful, too. I chose this place because it is the only affordable option with a full kitchen, but I would stay here now regardless of whether I needed the kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r494732022-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>494732022</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Would never stay here again. Room was not what I was told, No toiletries except one facial soap, one hand soap, and one little bottle of shampoo. Staff seamed like they were asleep, not clear at all or tried to go the extra mile for customers. I was very disappointed with my stay. Definitely not worth the rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Would never stay here again. Room was not what I was told, No toiletries except one facial soap, one hand soap, and one little bottle of shampoo. Staff seamed like they were asleep, not clear at all or tried to go the extra mile for customers. I was very disappointed with my stay. Definitely not worth the rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r493274906-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>493274906</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Practical for a family who prefers home-made meals</t>
+  </si>
+  <si>
+    <t>The room has a kitchen with an electric stove. Overall, the room was clean and practical like a single apartment, even though it felt somewhat out-dated. It was quiet and conveniently located near Walmart, freeways, and many restaurants.  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>The room has a kitchen with an electric stove. Overall, the room was clean and practical like a single apartment, even though it felt somewhat out-dated. It was quiet and conveniently located near Walmart, freeways, and many restaurants.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r448665258-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>448665258</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Xtended Stay America Stenvenson Ranch</t>
+  </si>
+  <si>
+    <t>The room is clean, water pressure is good. The heating unit in this room exmits excessive amount of dusts into the room.  Free breakfast in this hotel is nothing more than a cup of coffee and a snack bar. No juices of any kind nor spring water are provided.  When I asked the clerk for a spring water instead of coffee she said I can buy it from the vending machine across the hallway. The compact parking spaces are very narrow.  Once you have parked your car you will have a tough time getting out of it.  Wifi does not work well in my room.  I will stay at a nearby hotel for the same price($99/night) and get free continental breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>The room is clean, water pressure is good. The heating unit in this room exmits excessive amount of dusts into the room.  Free breakfast in this hotel is nothing more than a cup of coffee and a snack bar. No juices of any kind nor spring water are provided.  When I asked the clerk for a spring water instead of coffee she said I can buy it from the vending machine across the hallway. The compact parking spaces are very narrow.  Once you have parked your car you will have a tough time getting out of it.  Wifi does not work well in my room.  I will stay at a nearby hotel for the same price($99/night) and get free continental breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r430559252-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>430559252</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Accommodating Staff, Decent Rooms</t>
+  </si>
+  <si>
+    <t>The hotel seems to be smaller and in need of upgrades, but overall they were kept clean &amp; the staff really stood out in my mind as being unusually sweet &amp; helpful. During the times they were at max capacity during the fire, they not only managed to keep breakfast full for everyone, but they left it out longer to make sure the families who had been affected by the fire would be able to get what they needed. They also did it for business guests some days. We really felt that they cared, &amp; went above and beyond for guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded October 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2016</t>
+  </si>
+  <si>
+    <t>The hotel seems to be smaller and in need of upgrades, but overall they were kept clean &amp; the staff really stood out in my mind as being unusually sweet &amp; helpful. During the times they were at max capacity during the fire, they not only managed to keep breakfast full for everyone, but they left it out longer to make sure the families who had been affected by the fire would be able to get what they needed. They also did it for business guests some days. We really felt that they cared, &amp; went above and beyond for guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r419310089-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>419310089</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Amazing customer service</t>
+  </si>
+  <si>
+    <t>If anyone needs a recommendation for a great hotel when going to six flags, this is the greatest place. Such excellent customer service since we have arrived! When we first arrived there was a mishap with our reservation and their system so they gave us a bottom level and took $70 off our original rates! Originally we would have paid $215 for two nights and ended up only paying $145! Such a clean and comfortable room. So thankful for nice people in this world! The only downside was our air conditioning did not work well but the front desk provided us with a fan to stay cool! Not only is the hotel great, it is in an awesome area with nearby stores and food places. Very family friendly, absolutely love it. Jessica is the sweetest!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2016</t>
+  </si>
+  <si>
+    <t>If anyone needs a recommendation for a great hotel when going to six flags, this is the greatest place. Such excellent customer service since we have arrived! When we first arrived there was a mishap with our reservation and their system so they gave us a bottom level and took $70 off our original rates! Originally we would have paid $215 for two nights and ended up only paying $145! Such a clean and comfortable room. So thankful for nice people in this world! The only downside was our air conditioning did not work well but the front desk provided us with a fan to stay cool! Not only is the hotel great, it is in an awesome area with nearby stores and food places. Very family friendly, absolutely love it. Jessica is the sweetest!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r399394146-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>399394146</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Poor room quality</t>
+  </si>
+  <si>
+    <t>Filthy room, no tv remote, and broken toilet. Staff was very friendly, however. We cancelled the remainder of our reservation and moved to another hotel, and we did not have any problem doing that...again, very friendly people at the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Filthy room, no tv remote, and broken toilet. Staff was very friendly, however. We cancelled the remainder of our reservation and moved to another hotel, and we did not have any problem doing that...again, very friendly people at the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r395915612-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>395915612</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Magic Mountain</t>
+  </si>
+  <si>
+    <t>With Extended Stay Perks, this hotel is an even better value.  Staff is friendly.  If you are looking for a hotel close to Magic Mountain, this is it!!  Straight shot up The Old Road...never once had a problem with traffic.  Lots of food and stores in area.  Only downside are the pillows.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2016</t>
+  </si>
+  <si>
+    <t>With Extended Stay Perks, this hotel is an even better value.  Staff is friendly.  If you are looking for a hotel close to Magic Mountain, this is it!!  Straight shot up The Old Road...never once had a problem with traffic.  Lots of food and stores in area.  Only downside are the pillows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r388456301-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>388456301</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Pleased with experience and value</t>
+  </si>
+  <si>
+    <t>This hotel stay was significantly better priced than 2 neighboring hotels. The trade-off was a more minimal breakfast and no hair dryer in the room. The difference in price was well worth that. The room and hotel lobby were up-to-date and nicely furnished. My room was very quiet and service was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2016</t>
+  </si>
+  <si>
+    <t>This hotel stay was significantly better priced than 2 neighboring hotels. The trade-off was a more minimal breakfast and no hair dryer in the room. The difference in price was well worth that. The room and hotel lobby were up-to-date and nicely furnished. My room was very quiet and service was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r374305173-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>374305173</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>No Pool or Spa</t>
+  </si>
+  <si>
+    <t>the room was just ok, there was no pool or hot tub. we were under the impression that there was both. very disappointed.  about that. the young girl at the desk was just a bit snarky for me. had to go to the front desk for a coffee maker and coffee and then cups. no silverware in the room or paper towels. i wouldnt stay there again. i should have stayed at the La Quinta inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>the room was just ok, there was no pool or hot tub. we were under the impression that there was both. very disappointed.  about that. the young girl at the desk was just a bit snarky for me. had to go to the front desk for a coffee maker and coffee and then cups. no silverware in the room or paper towels. i wouldnt stay there again. i should have stayed at the La Quinta inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r368275162-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>368275162</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Friendly staff in a nice location.</t>
+  </si>
+  <si>
+    <t>In this area there is a tourist magnet called "Magic Mountain" and it is not that far away. Also MANY restaurants, and other diverse shopping retailers are very close, BUT, the main draw is the VERY FRIENDLY staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>In this area there is a tourist magnet called "Magic Mountain" and it is not that far away. Also MANY restaurants, and other diverse shopping retailers are very close, BUT, the main draw is the VERY FRIENDLY staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r357714103-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>357714103</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Another great stay at ESA Valencia/Stevenson Ranch!</t>
+  </si>
+  <si>
+    <t>I returned to ESA Valencia again for 2 weeks for work in February. Once again I received beyond exceptional service from Edna from the moment I checked in and till I departed. Edna is a valuable asset to a great hotel! I was given a great room on the 3rd floor on the end that was great, clean and had a nice view. Many great stores and restaurants in walking distance and an easy drive to my camps at Cal State Northridge (CSUN).Great value for the upscale, safe and convenient Valencia/Stevenson Ranch neighborhoods!See you next time!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r312536800-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>312536800</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Unpleasant</t>
+  </si>
+  <si>
+    <t>I had ordered a non smoking room but the room we got smelled terribly of smoke. I went downstairs to check and was told it was a non-smoking room. I asked for a coffee pot and was given one to take to our room but when I got it upstairs I noticed the pot was dirty. It still had coffee in it from the previous guest.The rooms have a full kitchen but (understandably) there is NOTHING in it. If you were planning on staying for an "extended stay" you'd have to go down to get the dishes, flatware, pots, pans, cups, glasses, etc. I do understand that nere-do-wells steal the stuff so they can't just leave it in the room. But expect to have to load the kitchen if you plan to cook. Water pressure was great in the shower. Always a plus. but the Beds didnt look newly made. They appeared to have been slept in. As in sheets were loose/wrinkled as were the bedspreads. A/C was not working. It was blowing air, but not cold air. We had planned on asking for a different room the next night (they were sold out the night we arrived so we couldnt switch) but we were so exhausted from spending the day at 6-Flags we just decided 'to heck with it'. And showered and slept and left in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded October 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2015</t>
+  </si>
+  <si>
+    <t>I had ordered a non smoking room but the room we got smelled terribly of smoke. I went downstairs to check and was told it was a non-smoking room. I asked for a coffee pot and was given one to take to our room but when I got it upstairs I noticed the pot was dirty. It still had coffee in it from the previous guest.The rooms have a full kitchen but (understandably) there is NOTHING in it. If you were planning on staying for an "extended stay" you'd have to go down to get the dishes, flatware, pots, pans, cups, glasses, etc. I do understand that nere-do-wells steal the stuff so they can't just leave it in the room. But expect to have to load the kitchen if you plan to cook. Water pressure was great in the shower. Always a plus. but the Beds didnt look newly made. They appeared to have been slept in. As in sheets were loose/wrinkled as were the bedspreads. A/C was not working. It was blowing air, but not cold air. We had planned on asking for a different room the next night (they were sold out the night we arrived so we couldnt switch) but we were so exhausted from spending the day at 6-Flags we just decided 'to heck with it'. And showered and slept and left in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r312146626-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>312146626</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Nasty you are better off staying in your car!</t>
+  </si>
+  <si>
+    <t>I stayed one  night with my children and boyfriend. My kids took off their shoes and had black socks within moments of walking in. The beds are old and the room reminded me of a retirement center. I'm glad we only booked one night! I am not a smoker and we asked for a non smoking room the hallways smelled like like smoke the smell lingered in my room when ever you went in and out. The brakefast is a few apples and muffins on a small desk by the entrance. Never again would I stay at this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed one  night with my children and boyfriend. My kids took off their shoes and had black socks within moments of walking in. The beds are old and the room reminded me of a retirement center. I'm glad we only booked one night! I am not a smoker and we asked for a non smoking room the hallways smelled like like smoke the smell lingered in my room when ever you went in and out. The brakefast is a few apples and muffins on a small desk by the entrance. Never again would I stay at this motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r307649007-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>307649007</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>The Bare Necessities</t>
+  </si>
+  <si>
+    <t>Brought the family to visit Six Flags CA for the weekend and literally got just enough to get thru. We booked a room that sleeps 4-6 and called ahead of arrival just to verify that our suite included a sofa bed. We were assured that our room was all inclusive and would be ready upon check-in since we were expecting a late arrival. Upon arrival @ 8:27pm, we were given a room with a single queen bed and a lazy-boy chair that lived up to its name because it was too lazy to open correctly. When bringing the issue up to the front desk attendant, she told us that we had been upgraded from a standard room to a studio apt. suite. That would've been fine if that had actually been the case. What we were assigned was a room that was clearly designed for a single person to occupy. There were 2 in our party and four more coming in the morning. Realizing the 3rd party website made a mistake in our booking, Edna the front desk attendant, spent the next 87mins on the phone with the website tech support/customer service rep trying to get them to change the room assignment on their end so that she could reassign us to a premium King suite with a bedroom that would fully accommodate our party. Long story short...it took two days for us to finally be accommodated. Try making sleeping...Brought the family to visit Six Flags CA for the weekend and literally got just enough to get thru. We booked a room that sleeps 4-6 and called ahead of arrival just to verify that our suite included a sofa bed. We were assured that our room was all inclusive and would be ready upon check-in since we were expecting a late arrival. Upon arrival @ 8:27pm, we were given a room with a single queen bed and a lazy-boy chair that lived up to its name because it was too lazy to open correctly. When bringing the issue up to the front desk attendant, she told us that we had been upgraded from a standard room to a studio apt. suite. That would've been fine if that had actually been the case. What we were assigned was a room that was clearly designed for a single person to occupy. There were 2 in our party and four more coming in the morning. Realizing the 3rd party website made a mistake in our booking, Edna the front desk attendant, spent the next 87mins on the phone with the website tech support/customer service rep trying to get them to change the room assignment on their end so that she could reassign us to a premium King suite with a bedroom that would fully accommodate our party. Long story short...it took two days for us to finally be accommodated. Try making sleeping arrangements for 6 in a studio suite with one bed &amp; no sofa bed or rollaway bed. And breakfast was literally as advertised..."grab n go" with no juice or water, but plenty of chocolate muffins &amp; coffee. Definitely not a variety suitable for a family with children or a family period. Think morning coffee run in the average workforce office...lol. They advertise/offer full kitchens, however, you must request all dishes, utensils, appliances, towels, oven mitts from the front desk. Basically u have to ask for them to bring you the kitchen. All in all, if you're too tired to drive anywhere and need a place to crash in the vicinity and you're not traveling with anyone, then you might as well stop here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brought the family to visit Six Flags CA for the weekend and literally got just enough to get thru. We booked a room that sleeps 4-6 and called ahead of arrival just to verify that our suite included a sofa bed. We were assured that our room was all inclusive and would be ready upon check-in since we were expecting a late arrival. Upon arrival @ 8:27pm, we were given a room with a single queen bed and a lazy-boy chair that lived up to its name because it was too lazy to open correctly. When bringing the issue up to the front desk attendant, she told us that we had been upgraded from a standard room to a studio apt. suite. That would've been fine if that had actually been the case. What we were assigned was a room that was clearly designed for a single person to occupy. There were 2 in our party and four more coming in the morning. Realizing the 3rd party website made a mistake in our booking, Edna the front desk attendant, spent the next 87mins on the phone with the website tech support/customer service rep trying to get them to change the room assignment on their end so that she could reassign us to a premium King suite with a bedroom that would fully accommodate our party. Long story short...it took two days for us to finally be accommodated. Try making sleeping...Brought the family to visit Six Flags CA for the weekend and literally got just enough to get thru. We booked a room that sleeps 4-6 and called ahead of arrival just to verify that our suite included a sofa bed. We were assured that our room was all inclusive and would be ready upon check-in since we were expecting a late arrival. Upon arrival @ 8:27pm, we were given a room with a single queen bed and a lazy-boy chair that lived up to its name because it was too lazy to open correctly. When bringing the issue up to the front desk attendant, she told us that we had been upgraded from a standard room to a studio apt. suite. That would've been fine if that had actually been the case. What we were assigned was a room that was clearly designed for a single person to occupy. There were 2 in our party and four more coming in the morning. Realizing the 3rd party website made a mistake in our booking, Edna the front desk attendant, spent the next 87mins on the phone with the website tech support/customer service rep trying to get them to change the room assignment on their end so that she could reassign us to a premium King suite with a bedroom that would fully accommodate our party. Long story short...it took two days for us to finally be accommodated. Try making sleeping arrangements for 6 in a studio suite with one bed &amp; no sofa bed or rollaway bed. And breakfast was literally as advertised..."grab n go" with no juice or water, but plenty of chocolate muffins &amp; coffee. Definitely not a variety suitable for a family with children or a family period. Think morning coffee run in the average workforce office...lol. They advertise/offer full kitchens, however, you must request all dishes, utensils, appliances, towels, oven mitts from the front desk. Basically u have to ask for them to bring you the kitchen. All in all, if you're too tired to drive anywhere and need a place to crash in the vicinity and you're not traveling with anyone, then you might as well stop here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r292224811-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>292224811</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Room and facilities like the shower, fridge, and kitchen area were all clean. TV was a great size too. The area was nice although we didn't really explore it, it was a good location for the people that are looking for out of city hustle-and-bustle. It is 30 minutes from Hollywood and from Santa Monica Pier.The staff were friendly and when we called to ask about the reservation, we were thoroughly pleased with the service we received.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2015</t>
+  </si>
+  <si>
+    <t>Room and facilities like the shower, fridge, and kitchen area were all clean. TV was a great size too. The area was nice although we didn't really explore it, it was a good location for the people that are looking for out of city hustle-and-bustle. It is 30 minutes from Hollywood and from Santa Monica Pier.The staff were friendly and when we called to ask about the reservation, we were thoroughly pleased with the service we received.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r272863150-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>272863150</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>As our drive went shorter than normal called for an early ck in. Was informed we could but it would be a room with " two beds" as our room would "not" be ready for another 3 hour, (3pm)we accepted that. Upon arriving, it smelled badly, I thought possibly it was the cleaning solutions. While the process of checking is in progress we were informed it was two "double" beds. Asked if we could then have our original room and was told no, it was taken. This after being told that room would "not" be available until 3pm and we were now there at 2:39. I was not happy and expressed that if I were given the correct info on the bed sizes I would have kept my original room I had reserved. Carla the desk clerk gave me a $40.00 discount for the mix up and lack of communication. We truly appreciated that. She informs me that the 15% off of my stay will be deducted at "time of check out". This is because I am a first time guest and signed up for the rewards program.
+ At that time I asked if this room had a bath tub, I was informed yes, with a smile, and told, "they are small" Not a problem for me I'm a small woman. Ramon, was standing behind her, had helped her with the input of the discount. I ask for extra coffee...As our drive went shorter than normal called for an early ck in. Was informed we could but it would be a room with " two beds" as our room would "not" be ready for another 3 hour, (3pm)we accepted that. Upon arriving, it smelled badly, I thought possibly it was the cleaning solutions. While the process of checking is in progress we were informed it was two "double" beds. Asked if we could then have our original room and was told no, it was taken. This after being told that room would "not" be available until 3pm and we were now there at 2:39. I was not happy and expressed that if I were given the correct info on the bed sizes I would have kept my original room I had reserved. Carla the desk clerk gave me a $40.00 discount for the mix up and lack of communication. We truly appreciated that. She informs me that the 15% off of my stay will be deducted at "time of check out". This is because I am a first time guest and signed up for the rewards program. At that time I asked if this room had a bath tub, I was informed yes, with a smile, and told, "they are small" Not a problem for me I'm a small woman. Ramon, was standing behind her, had helped her with the input of the discount. I ask for extra coffee and am told, we must call down from our room to request the coffee and coffee maker. I actually clarified this since I was standing at the desk I was told to call and request the items.We realize the whole hotel smells bad, nasty. There is clean dishes in dish pans in the hallway in front of room doors, dirty towels, dirty dishes in hallway. Open our room and it is just shabby and smelly. I seriously would have left and found another hotel if I didn't already know they were booked for if not all or parts of our 3 day stay. We had brought some groceries thinking for at least the first night we could cook or warm up some food. I out the food in the smelly fridge, unpack a few things and head to the bath. I tune on water and notice there is no plug in the tub. Ok, I call the desk and request the coffee maker, some extra coffee and a plug. Ramon ( the man behind Carla during our check in and my question about the tubs) tells me " we don't have plugs" I was taken aback a little bit, my reflex response was, you have tubs and no plugs and I ask Carla specifically about a tub in my room and you have no plugs. he said he would ask maintenance. Two and a half hours later he comes with the coffee maker, coffee tells my husband he didn't find a plug and will ask maintenance tomorrow. I was already in using a washcloth stuffed in the drain I managed. We would have also liked to open a window as it was so stuffy and the musty nasty smell in the room was a bit much. One window had in place of a screen another glass and would not open, the other window had a screen but would not stay open when lifted, We placed a soda can under it to hold the window open.  After a day of family visits we come back to our room on Friday and notice in the windows people had hung their laundry to dry. The walls are super thin, the plumber in the hallway with a snake was not a pleasant site and helped the anticipation of a decent stay none at all. Each day there were dishes, dirty laundry in the hallways. We came back to the hotel after room maintenance was done, and the kitchen set-ups were clean, left on the floor clean towels left on the nasty hallway floor that thousands of steps have been on that carpet. Saturday night a party was in the room next door (208) all night long knocks on the door, loud conversation, television. I was going to my bag looking for my earplugs, lose my footing and fall into the wall with my palms up. I hear from that room, someone's knocking on the wall we're to loud, grow up! This went on all night long, loud enough that the wax earplugs were useless. I chose not to knock on the door, nor request another room. The number of people in that room and the traffic in and out made my choice not to confront strangers in a hotel out of town. I made a call to the desk and told they were aware and it was being handled. The fact that it never ended, I saw how it was being handled.At 3:30 am I decide to shower and leave. We are checking out and find out that not only was the room fee put through for payment the day before but that also the 15% was "Not" applied to the total amount. I also tell the person I called to in the laundry room who is doing the check out in jeans and a t shirt that I was disturbed the whole night by the party in the room next door and was about to ask about my complaint. She tells me" yes we called the sheriff two times but they couldn't do anything because they weren't doing drugs. I asked about the 15% discount was told that it had been applied, I had to explain no that amount taken off was for the mis communication. She told me that Carla left no notations and that I had to "wait" to talk to Carla. I reminded her we were checking out, she points to a sign and says that's why we want you to check out after 7am??? I told her I can't do that and she shrugged, I had a 7 hour drive home, I'll call Carla after 8am, when Carla would be in. When I call Carla I am informed that she sent me an email informing me that the discount would be applied to my card in 3 to 5 business days. The room was charged to my card on the 16th, not  upon check out,our check out was the 17th. To say it was an very unpleasant experience, is an understatement. To say I would sleep in my car if this was the only hotel to have accommodations available is the absolute truth of the matter. My husband and I stay in this area on a minimum of 5 times a year. It is sad that the hotel would allow and maintain this hotel to this sub level and have clients as myself to not recommend and to stay away from the Extended Stay hotels, I am making the judgment based on this one hotel because I won't allow myself  the possible chance of another experience as this, and one that I pay for.To the person who defended the hotel by saying we who choose to stay and not understand the "concept" of extended stay, I will tell you. I have traveled extensively, have stayed in many "extended stay" types of hotels, don't look for some one to clean up after me like my momma did I say. I learned early on to clean up after myself. I understand and make the choice when needed. I do expect a little more than slum like conditions, informed staff, and at least in common areas, clean, not smelly and trash in receptacles. I have traveled to this area now for 25yrs since moving to nor cal and I have stayed in many different accommodations. I understand the need and have wanted the convenience of having what this type offers. But, I am still paying for it, I still expect and should expect it to be clean, the staff to be accommodating and walk into a room this sub level as described above and even more I did not include is unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded May 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2015</t>
+  </si>
+  <si>
+    <t>As our drive went shorter than normal called for an early ck in. Was informed we could but it would be a room with " two beds" as our room would "not" be ready for another 3 hour, (3pm)we accepted that. Upon arriving, it smelled badly, I thought possibly it was the cleaning solutions. While the process of checking is in progress we were informed it was two "double" beds. Asked if we could then have our original room and was told no, it was taken. This after being told that room would "not" be available until 3pm and we were now there at 2:39. I was not happy and expressed that if I were given the correct info on the bed sizes I would have kept my original room I had reserved. Carla the desk clerk gave me a $40.00 discount for the mix up and lack of communication. We truly appreciated that. She informs me that the 15% off of my stay will be deducted at "time of check out". This is because I am a first time guest and signed up for the rewards program.
+ At that time I asked if this room had a bath tub, I was informed yes, with a smile, and told, "they are small" Not a problem for me I'm a small woman. Ramon, was standing behind her, had helped her with the input of the discount. I ask for extra coffee...As our drive went shorter than normal called for an early ck in. Was informed we could but it would be a room with " two beds" as our room would "not" be ready for another 3 hour, (3pm)we accepted that. Upon arriving, it smelled badly, I thought possibly it was the cleaning solutions. While the process of checking is in progress we were informed it was two "double" beds. Asked if we could then have our original room and was told no, it was taken. This after being told that room would "not" be available until 3pm and we were now there at 2:39. I was not happy and expressed that if I were given the correct info on the bed sizes I would have kept my original room I had reserved. Carla the desk clerk gave me a $40.00 discount for the mix up and lack of communication. We truly appreciated that. She informs me that the 15% off of my stay will be deducted at "time of check out". This is because I am a first time guest and signed up for the rewards program. At that time I asked if this room had a bath tub, I was informed yes, with a smile, and told, "they are small" Not a problem for me I'm a small woman. Ramon, was standing behind her, had helped her with the input of the discount. I ask for extra coffee and am told, we must call down from our room to request the coffee and coffee maker. I actually clarified this since I was standing at the desk I was told to call and request the items.We realize the whole hotel smells bad, nasty. There is clean dishes in dish pans in the hallway in front of room doors, dirty towels, dirty dishes in hallway. Open our room and it is just shabby and smelly. I seriously would have left and found another hotel if I didn't already know they were booked for if not all or parts of our 3 day stay. We had brought some groceries thinking for at least the first night we could cook or warm up some food. I out the food in the smelly fridge, unpack a few things and head to the bath. I tune on water and notice there is no plug in the tub. Ok, I call the desk and request the coffee maker, some extra coffee and a plug. Ramon ( the man behind Carla during our check in and my question about the tubs) tells me " we don't have plugs" I was taken aback a little bit, my reflex response was, you have tubs and no plugs and I ask Carla specifically about a tub in my room and you have no plugs. he said he would ask maintenance. Two and a half hours later he comes with the coffee maker, coffee tells my husband he didn't find a plug and will ask maintenance tomorrow. I was already in using a washcloth stuffed in the drain I managed. We would have also liked to open a window as it was so stuffy and the musty nasty smell in the room was a bit much. One window had in place of a screen another glass and would not open, the other window had a screen but would not stay open when lifted, We placed a soda can under it to hold the window open.  After a day of family visits we come back to our room on Friday and notice in the windows people had hung their laundry to dry. The walls are super thin, the plumber in the hallway with a snake was not a pleasant site and helped the anticipation of a decent stay none at all. Each day there were dishes, dirty laundry in the hallways. We came back to the hotel after room maintenance was done, and the kitchen set-ups were clean, left on the floor clean towels left on the nasty hallway floor that thousands of steps have been on that carpet. Saturday night a party was in the room next door (208) all night long knocks on the door, loud conversation, television. I was going to my bag looking for my earplugs, lose my footing and fall into the wall with my palms up. I hear from that room, someone's knocking on the wall we're to loud, grow up! This went on all night long, loud enough that the wax earplugs were useless. I chose not to knock on the door, nor request another room. The number of people in that room and the traffic in and out made my choice not to confront strangers in a hotel out of town. I made a call to the desk and told they were aware and it was being handled. The fact that it never ended, I saw how it was being handled.At 3:30 am I decide to shower and leave. We are checking out and find out that not only was the room fee put through for payment the day before but that also the 15% was "Not" applied to the total amount. I also tell the person I called to in the laundry room who is doing the check out in jeans and a t shirt that I was disturbed the whole night by the party in the room next door and was about to ask about my complaint. She tells me" yes we called the sheriff two times but they couldn't do anything because they weren't doing drugs. I asked about the 15% discount was told that it had been applied, I had to explain no that amount taken off was for the mis communication. She told me that Carla left no notations and that I had to "wait" to talk to Carla. I reminded her we were checking out, she points to a sign and says that's why we want you to check out after 7am??? I told her I can't do that and she shrugged, I had a 7 hour drive home, I'll call Carla after 8am, when Carla would be in. When I call Carla I am informed that she sent me an email informing me that the discount would be applied to my card in 3 to 5 business days. The room was charged to my card on the 16th, not  upon check out,our check out was the 17th. To say it was an very unpleasant experience, is an understatement. To say I would sleep in my car if this was the only hotel to have accommodations available is the absolute truth of the matter. My husband and I stay in this area on a minimum of 5 times a year. It is sad that the hotel would allow and maintain this hotel to this sub level and have clients as myself to not recommend and to stay away from the Extended Stay hotels, I am making the judgment based on this one hotel because I won't allow myself  the possible chance of another experience as this, and one that I pay for.To the person who defended the hotel by saying we who choose to stay and not understand the "concept" of extended stay, I will tell you. I have traveled extensively, have stayed in many "extended stay" types of hotels, don't look for some one to clean up after me like my momma did I say. I learned early on to clean up after myself. I understand and make the choice when needed. I do expect a little more than slum like conditions, informed staff, and at least in common areas, clean, not smelly and trash in receptacles. I have traveled to this area now for 25yrs since moving to nor cal and I have stayed in many different accommodations. I understand the need and have wanted the convenience of having what this type offers. But, I am still paying for it, I still expect and should expect it to be clean, the staff to be accommodating and walk into a room this sub level as described above and even more I did not include is unacceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r272272562-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>272272562</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We checked in and found out that hotwire had booked us in a smoking room. I'm pretty sure his name was Bryan.. but he was so nice. I did t even have to ask and he changed us, no problem.  We had a quiet stay, slept I. So didn't get coffee, but they were gracious in giving us a late check out which I appreciate. I have stayed in extended stays a lot. But this has to be the best one by far!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r266160347-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>266160347</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Only stay here if its your only option</t>
+  </si>
+  <si>
+    <t>I start my review with the caveat that I my 2.5mo at Extended Stay came right after I spent 3mo in the Residence Inn right around the corner. I changed locations since at the time the Extended Stay rate was ~30% cheaper. I would say that you get what you pay for, but for the 30% cheaper I expected that the general services would go down ~30%. Instead the services went down ~80% and the quality went down ~50%. To see where Residence Inn shined you can search for my review on them.
+Here are the basics
+PROS
+-Friendly staff
+-Good location - Although technically in Stevenson Ranch not Valencia
+-Decent rates
+-Good size rooms
+-Weekly cleaning service
+-Morning Snacks
+-Are pet friendly (I didn’t have a pet with me, but the few dogs I saw were well behaved.)
+CONS
+-Weird smells in halls
+-Very slow base internet (I rated it at 0.81 Mps download in my room). The paid $20 expanded internet was better, but still bad at ~3 Mps. The additional charge is also required for each device that you want the expanded service on (Although it doesn’t actually state it when you make the purchase or in the terms of service. I only found out after I tried to add additional devices.).
+-Poor sound insulation. At least in my wing, some of the residents were pretty rowdy, in their rooms, in the hall, and outside. 
+-There’s no...I start my review with the caveat that I my 2.5mo at Extended Stay came right after I spent 3mo in the Residence Inn right around the corner. I changed locations since at the time the Extended Stay rate was ~30% cheaper. I would say that you get what you pay for, but for the 30% cheaper I expected that the general services would go down ~30%. Instead the services went down ~80% and the quality went down ~50%. To see where Residence Inn shined you can search for my review on them.Here are the basicsPROS-Friendly staff-Good location - Although technically in Stevenson Ranch not Valencia-Decent rates-Good size rooms-Weekly cleaning service-Morning Snacks-Are pet friendly (I didn’t have a pet with me, but the few dogs I saw were well behaved.)CONS-Weird smells in halls-Very slow base internet (I rated it at 0.81 Mps download in my room). The paid $20 expanded internet was better, but still bad at ~3 Mps. The additional charge is also required for each device that you want the expanded service on (Although it doesn’t actually state it when you make the purchase or in the terms of service. I only found out after I tried to add additional devices.).-Poor sound insulation. At least in my wing, some of the residents were pretty rowdy, in their rooms, in the hall, and outside. -There’s no dishwasher and the sink is small. Technically large enough to clean a pan, but just barely, and you end up with a fair bit of water on the surrounding countertop.-My unit had:--Perpetually leaking shower. I had the maintenance person come fix it shortly after I moved in. It didn’t leak for a few days until the cleaning person came. After that I could never get it all the way off.--No cover/stopper in bathroom sink, so you had to be careful about small objects near the sink.--Cracked/chipped outlet covers (not a big deal, but they’re less than $2 to replace)--Countertop surfaces that were in need of replacement.  (They had been damaged and poorly repaired.)--My refrigerator leaked all over the floor for the first 3 weeks. I spoke to the staff a few times about getting it fixed over that timeframe. In the end, one of the managers actually went and got a spare fridge and brought it up to my room. I appreciate that she did that service, but it sucks that the maintenance person hadn’t done it a couple weeks prior. Especially since the only reason that they didn’t get expensive water damage was because I kept the water at bay using traps and towels.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>I start my review with the caveat that I my 2.5mo at Extended Stay came right after I spent 3mo in the Residence Inn right around the corner. I changed locations since at the time the Extended Stay rate was ~30% cheaper. I would say that you get what you pay for, but for the 30% cheaper I expected that the general services would go down ~30%. Instead the services went down ~80% and the quality went down ~50%. To see where Residence Inn shined you can search for my review on them.
+Here are the basics
+PROS
+-Friendly staff
+-Good location - Although technically in Stevenson Ranch not Valencia
+-Decent rates
+-Good size rooms
+-Weekly cleaning service
+-Morning Snacks
+-Are pet friendly (I didn’t have a pet with me, but the few dogs I saw were well behaved.)
+CONS
+-Weird smells in halls
+-Very slow base internet (I rated it at 0.81 Mps download in my room). The paid $20 expanded internet was better, but still bad at ~3 Mps. The additional charge is also required for each device that you want the expanded service on (Although it doesn’t actually state it when you make the purchase or in the terms of service. I only found out after I tried to add additional devices.).
+-Poor sound insulation. At least in my wing, some of the residents were pretty rowdy, in their rooms, in the hall, and outside. 
+-There’s no...I start my review with the caveat that I my 2.5mo at Extended Stay came right after I spent 3mo in the Residence Inn right around the corner. I changed locations since at the time the Extended Stay rate was ~30% cheaper. I would say that you get what you pay for, but for the 30% cheaper I expected that the general services would go down ~30%. Instead the services went down ~80% and the quality went down ~50%. To see where Residence Inn shined you can search for my review on them.Here are the basicsPROS-Friendly staff-Good location - Although technically in Stevenson Ranch not Valencia-Decent rates-Good size rooms-Weekly cleaning service-Morning Snacks-Are pet friendly (I didn’t have a pet with me, but the few dogs I saw were well behaved.)CONS-Weird smells in halls-Very slow base internet (I rated it at 0.81 Mps download in my room). The paid $20 expanded internet was better, but still bad at ~3 Mps. The additional charge is also required for each device that you want the expanded service on (Although it doesn’t actually state it when you make the purchase or in the terms of service. I only found out after I tried to add additional devices.).-Poor sound insulation. At least in my wing, some of the residents were pretty rowdy, in their rooms, in the hall, and outside. -There’s no dishwasher and the sink is small. Technically large enough to clean a pan, but just barely, and you end up with a fair bit of water on the surrounding countertop.-My unit had:--Perpetually leaking shower. I had the maintenance person come fix it shortly after I moved in. It didn’t leak for a few days until the cleaning person came. After that I could never get it all the way off.--No cover/stopper in bathroom sink, so you had to be careful about small objects near the sink.--Cracked/chipped outlet covers (not a big deal, but they’re less than $2 to replace)--Countertop surfaces that were in need of replacement.  (They had been damaged and poorly repaired.)--My refrigerator leaked all over the floor for the first 3 weeks. I spoke to the staff a few times about getting it fixed over that timeframe. In the end, one of the managers actually went and got a spare fridge and brought it up to my room. I appreciate that she did that service, but it sucks that the maintenance person hadn’t done it a couple weeks prior. Especially since the only reason that they didn’t get expensive water damage was because I kept the water at bay using traps and towels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r259805299-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>259805299</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Worst Stay</t>
+  </si>
+  <si>
+    <t>Spring break, a time to relax and make memories with friends. That's what I thought was gonna happen, until I decided to book 3 nights at this trashy hotel. Right of the bat, there is no room service and promises are broken. The front desk is supposed to provide pots and pans to cook with, but when we asked they were out. So later that night we found one in the hallway from a neighboring room. This is only one of the several problems we faced during our few nights there. We discovered that our trash would not be taken out, and had to leave the bags in the hallway. The sheets from the bed would slip off in the middle of the night, revealing the yellow stained mattress. They didn't provide hand soap, the handle to the bathroom door came of twice, and there were pears left in the fridge from a previous visitor.  Not only does this place not have the expected luxuries of most hotels that charge over $100 a night, but there were inconveniences left and right. My favorite part about staying at this hotel was a spider crawling on my arm while I was relaxing the last morning of my stay. Probably one of the worst hotels I've been to and made the beginning of my spring break hard to enjoy.     MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2015</t>
+  </si>
+  <si>
+    <t>Spring break, a time to relax and make memories with friends. That's what I thought was gonna happen, until I decided to book 3 nights at this trashy hotel. Right of the bat, there is no room service and promises are broken. The front desk is supposed to provide pots and pans to cook with, but when we asked they were out. So later that night we found one in the hallway from a neighboring room. This is only one of the several problems we faced during our few nights there. We discovered that our trash would not be taken out, and had to leave the bags in the hallway. The sheets from the bed would slip off in the middle of the night, revealing the yellow stained mattress. They didn't provide hand soap, the handle to the bathroom door came of twice, and there were pears left in the fridge from a previous visitor.  Not only does this place not have the expected luxuries of most hotels that charge over $100 a night, but there were inconveniences left and right. My favorite part about staying at this hotel was a spider crawling on my arm while I was relaxing the last morning of my stay. Probably one of the worst hotels I've been to and made the beginning of my spring break hard to enjoy.     More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r258459902-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>258459902</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Last minute stay</t>
+  </si>
+  <si>
+    <t>We stayed here in a last minute decision with no vacancy in nearby hotels. The room was clean, bathroom was clean, nice large room with small kitchen area. Wasn't too impressed with small breakfast selectionMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here in a last minute decision with no vacancy in nearby hotels. The room was clean, bathroom was clean, nice large room with small kitchen area. Wasn't too impressed with small breakfast selectionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r246833149-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>246833149</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Stay somewhere else</t>
+  </si>
+  <si>
+    <t>We checked in around 9pm, which is the time I listed on the online reservation, and got to my room to find a kitchenette with no dishes of any kind.  I needed to take some medication and there were no glasses/cups anywhere in the room.  I had requested a ground room floor as my husband is handicapped.  All were gone and the elevator was broken.  I did mention this in my reservation request.  Paid $115 and did not feel like it was worth it.  Will not return or recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded January 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2015</t>
+  </si>
+  <si>
+    <t>We checked in around 9pm, which is the time I listed on the online reservation, and got to my room to find a kitchenette with no dishes of any kind.  I needed to take some medication and there were no glasses/cups anywhere in the room.  I had requested a ground room floor as my husband is handicapped.  All were gone and the elevator was broken.  I did mention this in my reservation request.  Paid $115 and did not feel like it was worth it.  Will not return or recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r246709192-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>246709192</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Stay Down the Street for only $20 more</t>
+  </si>
+  <si>
+    <t>Hotel is very run down and in need of updating.  Elevator was broken and had to walk up 3 flights of stairs.   No rooms were ready when we arrived at 5:00 pm.   Hallway smelled of smoke.  Bathroom faucet leaked.  Abandoned car with smashed window in parking lot just outside of lobby.  Not worth the price.   Spend just $20 more and stay down the street at Comfort Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded January 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is very run down and in need of updating.  Elevator was broken and had to walk up 3 flights of stairs.   No rooms were ready when we arrived at 5:00 pm.   Hallway smelled of smoke.  Bathroom faucet leaked.  Abandoned car with smashed window in parking lot just outside of lobby.  Not worth the price.   Spend just $20 more and stay down the street at Comfort Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r229352908-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>229352908</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Goodbye !!!</t>
+  </si>
+  <si>
+    <t>Will NOT visit this place no more. Not a good place to recommend to friends for short vacation. You need to put a breakfast ROOM and not the go N get kind of food service. I found a stain in my bed sheet and it looks like a **** dried and gross!!   MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded September 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2014</t>
+  </si>
+  <si>
+    <t>Will NOT visit this place no more. Not a good place to recommend to friends for short vacation. You need to put a breakfast ROOM and not the go N get kind of food service. I found a stain in my bed sheet and it looks like a **** dried and gross!!   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r213179418-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>213179418</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Great, no frills, pet friendly, affordable hotel in an excellent location!</t>
+  </si>
+  <si>
+    <t>After staying at the Extended Stay for nearly 2 months I observed a lot of pros and cons.PROS:* Great location* Affordable* Pet friendly (pet owners pick up after your pets you lazy F***s! - you mess it up for responsible dog owners!!!)* Laundry on siteCONS:* No frills hotel* The staff work really hard to accommodate an incredibly high volume of guests with little to no * support from their corporate offices.* The have a couple really good cleaning ladies who I've seen work their butts off only to be treated poorly by their superiors.* The Manager that was there when I was there was very kind and accommodating to me but I could see how people would think she was rude.  The only comment I have is again, I don't see any support from their corporate offices which makes it nearly impossible to improve poor working conditions which result in these bad reviews.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>After staying at the Extended Stay for nearly 2 months I observed a lot of pros and cons.PROS:* Great location* Affordable* Pet friendly (pet owners pick up after your pets you lazy F***s! - you mess it up for responsible dog owners!!!)* Laundry on siteCONS:* No frills hotel* The staff work really hard to accommodate an incredibly high volume of guests with little to no * support from their corporate offices.* The have a couple really good cleaning ladies who I've seen work their butts off only to be treated poorly by their superiors.* The Manager that was there when I was there was very kind and accommodating to me but I could see how people would think she was rude.  The only comment I have is again, I don't see any support from their corporate offices which makes it nearly impossible to improve poor working conditions which result in these bad reviews.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r212722607-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>212722607</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirty hotel </t>
+  </si>
+  <si>
+    <t>Latest reviews of this hotel are 100% accurate. The entire third floor reeks of cigarette smoke - to the point I had to hold my breathe walking down the halls. Garbage in the kitchen area of the room was completely full of food and beer bottles left over from the previous guests. Coffee maker had a used coffee packet inside - also from the previous guests. Shower faucet leaked all day and night. If the cleaning staff isn't paying enough attention to take out the trash I can only image what else isn't being cleaned. Will never stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Latest reviews of this hotel are 100% accurate. The entire third floor reeks of cigarette smoke - to the point I had to hold my breathe walking down the halls. Garbage in the kitchen area of the room was completely full of food and beer bottles left over from the previous guests. Coffee maker had a used coffee packet inside - also from the previous guests. Shower faucet leaked all day and night. If the cleaning staff isn't paying enough attention to take out the trash I can only image what else isn't being cleaned. Will never stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r211408984-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>211408984</t>
+  </si>
+  <si>
+    <t>06/21/2014</t>
+  </si>
+  <si>
+    <t>STAY AWAY from Extended Stay America!!!  Hotel Hell!!</t>
+  </si>
+  <si>
+    <t>I came to CA for my brother's wedding along with my parents, sister and nephew from AZ and the bride's mother and 3 grandsons from TX - a total of five rooms were booked.  We knew that our expectation of a nice hotel in Valencia was inaccurate when we pulled up and saw the dead landscaping, and dog urine stains at the front entrance of the lobby. The front desk attendants were nice but it was obvious that one of them was new and being trained as we checked in at the dirty front desk.  I got more concerned when I saw  trash in the hallways and smelled the odor in the halls on my way to the first room they gave me, which smelled of fish odor!  The next room was next door to a noisy family and the room that I ended up staying in had hair on the bed blanket, stains on the bed spread, stains on the floor, hair in the bath sink, hair in the shower, hair on the floor of the bathroom and black spots on the ceiling of the bathroom, which had no exhaust fan. The bathroom and refrigerator did not look clean and the water fixtures where rusty and old.  My parents and friends rooms were also worn out with stains on counter tops, hair on blankets and a used washcloth in one of the bathrooms.  I called the District manager within...I came to CA for my brother's wedding along with my parents, sister and nephew from AZ and the bride's mother and 3 grandsons from TX - a total of five rooms were booked.  We knew that our expectation of a nice hotel in Valencia was inaccurate when we pulled up and saw the dead landscaping, and dog urine stains at the front entrance of the lobby. The front desk attendants were nice but it was obvious that one of them was new and being trained as we checked in at the dirty front desk.  I got more concerned when I saw  trash in the hallways and smelled the odor in the halls on my way to the first room they gave me, which smelled of fish odor!  The next room was next door to a noisy family and the room that I ended up staying in had hair on the bed blanket, stains on the bed spread, stains on the floor, hair in the bath sink, hair in the shower, hair on the floor of the bathroom and black spots on the ceiling of the bathroom, which had no exhaust fan. The bathroom and refrigerator did not look clean and the water fixtures where rusty and old.  My parents and friends rooms were also worn out with stains on counter tops, hair on blankets and a used washcloth in one of the bathrooms.  I called the District manager within an hour of our arrival and explained the condition of the rooms, that we were here for a wedding and asked what they could do for us.  She offered an apology and said that we could check out in the AM. That was it!   I called other hotels in the area and looked on line but everything was out of our budgets and we didn't have time to change hotels since the wedding was Saturday - we felt trapped there!!  When my sister and nephew arrived late in the PM, her room had alcohol, open bacon, milk and a plate of fried food in the unclean refrigerator, stains  on the bedding, floor, bath room counter, dripping shower faucet, broken lamp, window curtains hanging by one screw, chewed gum on the wall and WET beds! I had to help her strip her bed at 11 PM and change her bedding which still stayed damp all night!  I called Extended Stay America's guest services Sat. AM, they documented all of this and said the director of operations would call me.  He NEVER did.  I've called back after my trip.  They are NOT returning calls and have made no effort to compensate us for the terrible experience we had at this place. This was so upsetting and almost ruined the trip for my brother's wedding!  The attendants working there were nice and sympathedic to us but they said that they get no help from the management to improve anything.  This place is a mess and nobody at Extended Stay America seems to care or want to do anything about it!  DO NOT STAY HERE!!  Me and my large extended family will NEVER stay at an Extended Stay America property again!  This company cares nothing for their guests and they do not care about their reputation! We are telling everyone we know to STAY AWAY from Extended Stay America!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I came to CA for my brother's wedding along with my parents, sister and nephew from AZ and the bride's mother and 3 grandsons from TX - a total of five rooms were booked.  We knew that our expectation of a nice hotel in Valencia was inaccurate when we pulled up and saw the dead landscaping, and dog urine stains at the front entrance of the lobby. The front desk attendants were nice but it was obvious that one of them was new and being trained as we checked in at the dirty front desk.  I got more concerned when I saw  trash in the hallways and smelled the odor in the halls on my way to the first room they gave me, which smelled of fish odor!  The next room was next door to a noisy family and the room that I ended up staying in had hair on the bed blanket, stains on the bed spread, stains on the floor, hair in the bath sink, hair in the shower, hair on the floor of the bathroom and black spots on the ceiling of the bathroom, which had no exhaust fan. The bathroom and refrigerator did not look clean and the water fixtures where rusty and old.  My parents and friends rooms were also worn out with stains on counter tops, hair on blankets and a used washcloth in one of the bathrooms.  I called the District manager within...I came to CA for my brother's wedding along with my parents, sister and nephew from AZ and the bride's mother and 3 grandsons from TX - a total of five rooms were booked.  We knew that our expectation of a nice hotel in Valencia was inaccurate when we pulled up and saw the dead landscaping, and dog urine stains at the front entrance of the lobby. The front desk attendants were nice but it was obvious that one of them was new and being trained as we checked in at the dirty front desk.  I got more concerned when I saw  trash in the hallways and smelled the odor in the halls on my way to the first room they gave me, which smelled of fish odor!  The next room was next door to a noisy family and the room that I ended up staying in had hair on the bed blanket, stains on the bed spread, stains on the floor, hair in the bath sink, hair in the shower, hair on the floor of the bathroom and black spots on the ceiling of the bathroom, which had no exhaust fan. The bathroom and refrigerator did not look clean and the water fixtures where rusty and old.  My parents and friends rooms were also worn out with stains on counter tops, hair on blankets and a used washcloth in one of the bathrooms.  I called the District manager within an hour of our arrival and explained the condition of the rooms, that we were here for a wedding and asked what they could do for us.  She offered an apology and said that we could check out in the AM. That was it!   I called other hotels in the area and looked on line but everything was out of our budgets and we didn't have time to change hotels since the wedding was Saturday - we felt trapped there!!  When my sister and nephew arrived late in the PM, her room had alcohol, open bacon, milk and a plate of fried food in the unclean refrigerator, stains  on the bedding, floor, bath room counter, dripping shower faucet, broken lamp, window curtains hanging by one screw, chewed gum on the wall and WET beds! I had to help her strip her bed at 11 PM and change her bedding which still stayed damp all night!  I called Extended Stay America's guest services Sat. AM, they documented all of this and said the director of operations would call me.  He NEVER did.  I've called back after my trip.  They are NOT returning calls and have made no effort to compensate us for the terrible experience we had at this place. This was so upsetting and almost ruined the trip for my brother's wedding!  The attendants working there were nice and sympathedic to us but they said that they get no help from the management to improve anything.  This place is a mess and nobody at Extended Stay America seems to care or want to do anything about it!  DO NOT STAY HERE!!  Me and my large extended family will NEVER stay at an Extended Stay America property again!  This company cares nothing for their guests and they do not care about their reputation! We are telling everyone we know to STAY AWAY from Extended Stay America!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r203120836-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>203120836</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Worse hotel ever!</t>
+  </si>
+  <si>
+    <t>When we arrived to the hotel at 3pm, the front desk attendant was "brand new" as the Manager explained to us and then left, leaving us with the new front desk attendant to fill out necessary paperwork for us to check-in. The process was slow. Very s-lo-w and I couldn't believe the Manager would just leave her attendant like that in front of guests. You could tell the front desk attendant was nervous and anxious. 
+So after a good 10 minutes, we were then told we needed to wait another 10 minutes before we could check-in. I asked if there was another room we could have since I was on a time crunch for a wedding rehearsal in town, she said no, but that we needed to wait since we were a little early. My BF then asked what time check-in was, she said 3pm, and we looked at our phones. It was 3:15. She then apologized and said, "Oh! It's 3:15? I need to get going too," and that was it. We were stuck waiting.
+When we were finally given the green light to go to our room, the cleaning lady was still there. She needed to mop and wash the towels and dishes. At that point, we needed to start getting ready for our appointment so we, my BF and I, and the maid all were in the room trying to get things done. 
+Oh, and at one...When we arrived to the hotel at 3pm, the front desk attendant was "brand new" as the Manager explained to us and then left, leaving us with the new front desk attendant to fill out necessary paperwork for us to check-in. The process was slow. Very s-lo-w and I couldn't believe the Manager would just leave her attendant like that in front of guests. You could tell the front desk attendant was nervous and anxious. So after a good 10 minutes, we were then told we needed to wait another 10 minutes before we could check-in. I asked if there was another room we could have since I was on a time crunch for a wedding rehearsal in town, she said no, but that we needed to wait since we were a little early. My BF then asked what time check-in was, she said 3pm, and we looked at our phones. It was 3:15. She then apologized and said, "Oh! It's 3:15? I need to get going too," and that was it. We were stuck waiting.When we were finally given the green light to go to our room, the cleaning lady was still there. She needed to mop and wash the towels and dishes. At that point, we needed to start getting ready for our appointment so we, my BF and I, and the maid all were in the room trying to get things done. Oh, and at one point, the Manager and her attendant locked themselves out of the hotel one afternoon. My BF had to let them in with his hotel key.Complete idiots. Hallwags were so dirty that it looks like they haven't vacuumed in weeks. One bar of soap in hotel room's restroom - no shampoo, no conditioner. No pad of paper and pens - I thought this was an extended stay hotel? BF asked the front desk if he could get some paper and pens - they said they don't do paper, but did hand him a pen. Coffee maker was broken. They don't acknowledge you at the front desk when you walk in or walk out of the hotel. Simply the worse experience ever. Exended Stays typically have an okay reputation, but this one, by far has really let go their quality control.Spend your money at the Hampton Inn right down the street. Better breakfast, service, and rooms. Seriously!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded April 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2014</t>
+  </si>
+  <si>
+    <t>When we arrived to the hotel at 3pm, the front desk attendant was "brand new" as the Manager explained to us and then left, leaving us with the new front desk attendant to fill out necessary paperwork for us to check-in. The process was slow. Very s-lo-w and I couldn't believe the Manager would just leave her attendant like that in front of guests. You could tell the front desk attendant was nervous and anxious. 
+So after a good 10 minutes, we were then told we needed to wait another 10 minutes before we could check-in. I asked if there was another room we could have since I was on a time crunch for a wedding rehearsal in town, she said no, but that we needed to wait since we were a little early. My BF then asked what time check-in was, she said 3pm, and we looked at our phones. It was 3:15. She then apologized and said, "Oh! It's 3:15? I need to get going too," and that was it. We were stuck waiting.
+When we were finally given the green light to go to our room, the cleaning lady was still there. She needed to mop and wash the towels and dishes. At that point, we needed to start getting ready for our appointment so we, my BF and I, and the maid all were in the room trying to get things done. 
+Oh, and at one...When we arrived to the hotel at 3pm, the front desk attendant was "brand new" as the Manager explained to us and then left, leaving us with the new front desk attendant to fill out necessary paperwork for us to check-in. The process was slow. Very s-lo-w and I couldn't believe the Manager would just leave her attendant like that in front of guests. You could tell the front desk attendant was nervous and anxious. So after a good 10 minutes, we were then told we needed to wait another 10 minutes before we could check-in. I asked if there was another room we could have since I was on a time crunch for a wedding rehearsal in town, she said no, but that we needed to wait since we were a little early. My BF then asked what time check-in was, she said 3pm, and we looked at our phones. It was 3:15. She then apologized and said, "Oh! It's 3:15? I need to get going too," and that was it. We were stuck waiting.When we were finally given the green light to go to our room, the cleaning lady was still there. She needed to mop and wash the towels and dishes. At that point, we needed to start getting ready for our appointment so we, my BF and I, and the maid all were in the room trying to get things done. Oh, and at one point, the Manager and her attendant locked themselves out of the hotel one afternoon. My BF had to let them in with his hotel key.Complete idiots. Hallwags were so dirty that it looks like they haven't vacuumed in weeks. One bar of soap in hotel room's restroom - no shampoo, no conditioner. No pad of paper and pens - I thought this was an extended stay hotel? BF asked the front desk if he could get some paper and pens - they said they don't do paper, but did hand him a pen. Coffee maker was broken. They don't acknowledge you at the front desk when you walk in or walk out of the hotel. Simply the worse experience ever. Exended Stays typically have an okay reputation, but this one, by far has really let go their quality control.Spend your money at the Hampton Inn right down the street. Better breakfast, service, and rooms. Seriously!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r202864240-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>202864240</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Not a very nice manager actually.</t>
+  </si>
+  <si>
+    <t>Would not recommend to my friends and I would not stay there again myself.  There was no discount applied to my bill even though one was promised and the room I booked was not available. The garbage in the kitchen was full at check in and they were rude during check out.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded April 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2014</t>
+  </si>
+  <si>
+    <t>Would not recommend to my friends and I would not stay there again myself.  There was no discount applied to my bill even though one was promised and the room I booked was not available. The garbage in the kitchen was full at check in and they were rude during check out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r199876860-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>199876860</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Dirty Hotel</t>
+  </si>
+  <si>
+    <t>Kitchen floor sticky dirty/ food spills; bathroom floor, spots/ dirty; Tub scummy/hair residue. ALL towels dingy gray and stained.  Toilet seat loose.  Stained bed sheets.No pans in kitchen/noisy frig.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r187365335-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>187365335</t>
+  </si>
+  <si>
+    <t>12/11/2013</t>
+  </si>
+  <si>
+    <t>Just Ask And You Shall Receive</t>
+  </si>
+  <si>
+    <t>The staff is wonderful there. Jin was a star in my book and was always helpful and willing to go above and beyond. The rest of the staff is great too. My stay was centered around business so I scouted out a location prior to making reservations. Although some of the reviews i read made me wonder, my misgivings quickly dissolved when I spoke to Jaquie the GM. She is guest and service driven and goes out of her way to accommodate guests at her hotel. I stayed at this hotel for almost a month on off during the month of October. The rooms were clean. The kitchen was fine and the beds were comfortable. I only had one issue with smokers in the hotel but the issue was resolved by speaking to the staff. A lot of reviews comment that this is an issue. It was for me as well but making the staff aware that I had an issue is what got it resolved for me and from there my stay was overall a very good experience! The location around the hotel is very convenient for shopping and for dining. Also close to the interstate 5 as well. I recommend this hotel for a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded December 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2013</t>
+  </si>
+  <si>
+    <t>The staff is wonderful there. Jin was a star in my book and was always helpful and willing to go above and beyond. The rest of the staff is great too. My stay was centered around business so I scouted out a location prior to making reservations. Although some of the reviews i read made me wonder, my misgivings quickly dissolved when I spoke to Jaquie the GM. She is guest and service driven and goes out of her way to accommodate guests at her hotel. I stayed at this hotel for almost a month on off during the month of October. The rooms were clean. The kitchen was fine and the beds were comfortable. I only had one issue with smokers in the hotel but the issue was resolved by speaking to the staff. A lot of reviews comment that this is an issue. It was for me as well but making the staff aware that I had an issue is what got it resolved for me and from there my stay was overall a very good experience! The location around the hotel is very convenient for shopping and for dining. Also close to the interstate 5 as well. I recommend this hotel for a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r185710242-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>185710242</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Not impressed.</t>
+  </si>
+  <si>
+    <t>Had trouble getting a room that did not smell like an ashtray. Broken furnishings. Dirty dishes in kitchen. Missing towels. Poor communication between personnel that were trying to help me. Generally unimpressed with this place. Parking spaces are super narrow. I have two new door dings thanks to that and a lack of consideration from other people. I doubt I would ever consider staying in an Extended Stay America hotel again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r183589529-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>183589529</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>Great for the price</t>
+  </si>
+  <si>
+    <t>I almost forgot to review this place. Got a good deal on PL for a quick night stay. A little worried that it was a one star, but for one night it was fine. Decent room and had a kitchenette, though I went out to eat of course. I like the location as it was across the street from shopping and a gym that I belonged to.The breakfast was MEH...if you're used to Hilton hotels like Hampton and Embassy, the miniscule bars were disappointing. However, for the price it ain't bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded November 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2013</t>
+  </si>
+  <si>
+    <t>I almost forgot to review this place. Got a good deal on PL for a quick night stay. A little worried that it was a one star, but for one night it was fine. Decent room and had a kitchenette, though I went out to eat of course. I like the location as it was across the street from shopping and a gym that I belonged to.The breakfast was MEH...if you're used to Hilton hotels like Hampton and Embassy, the miniscule bars were disappointing. However, for the price it ain't bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r177682181-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>177682181</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Excellent customer service!!</t>
+  </si>
+  <si>
+    <t>The staff were extremely helpful and courteous. Whatever we needed to make our stay comfortable they were on it! The rooms/bathrooms/kitchenette and carpeting could use some updating. Otherwise, a comfortable stay next to an amazing restaurant, Coco's. The best breakfast ever just a few feet from the hotel. Thanks to the staff at ESA! We appreciated you through our stay!  :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded September 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2013</t>
+  </si>
+  <si>
+    <t>The staff were extremely helpful and courteous. Whatever we needed to make our stay comfortable they were on it! The rooms/bathrooms/kitchenette and carpeting could use some updating. Otherwise, a comfortable stay next to an amazing restaurant, Coco's. The best breakfast ever just a few feet from the hotel. Thanks to the staff at ESA! We appreciated you through our stay!  :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r175595425-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>175595425</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Beautiful spacious rooms.</t>
+  </si>
+  <si>
+    <t>Extended stay america is super clean. Room's are very well done to make me feel right at home. A beautiful location and beautiful rooms.There's laundry on grounds. They are right in heart of shopping centers from my favorite Toys R Us, Walmart, Bed Bath Beyond and so many good places to eat.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r173583229-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>173583229</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Quiet, Well Appointed, Perfect for Any Length Stay</t>
+  </si>
+  <si>
+    <t>I chose the Extended Stay America because of its proximity to the Grapevine.  My husband and I were traveling south from Northern California on a business trip with our cargo trailer and needed a hotel that 1) was in the L.A. Basin, but not to far, timewise, from the Grapevine, 2) had enough parking to accommodate our truck and trailer, 3) was economical.  This hotel met all three qualifications nicely.  The property was clean with a Coco's restaurant that shares the same parking lot.  Although I was not traveling alone on this trip, I would have felt perfectly comfortable staying there as a single female traveler.  
+There was sufficient parking for several larger vehicles or vehicles with trailers, but we arrived a bit later than expected--just before 9pm--and found one of the last multiple-space spots available.  I would plan to arrive a bit earlier in the evening if space for your vehicle is a concern since other travelers with larger vehicles obviously had our same idea.
+The room was well appointed and well lit.  My only complaint was that we found the bed a bit firm, but that's an issue that is a personal one and certainly wouldn't keep us from staying there again.
+Although we had brought our own food to take advantage of the kitchen, I appreciated the 'grab and go' goodies in the foyer, including coffee, fruit, and granola bars.
+Overall this is a great property and...I chose the Extended Stay America because of its proximity to the Grapevine.  My husband and I were traveling south from Northern California on a business trip with our cargo trailer and needed a hotel that 1) was in the L.A. Basin, but not to far, timewise, from the Grapevine, 2) had enough parking to accommodate our truck and trailer, 3) was economical.  This hotel met all three qualifications nicely.  The property was clean with a Coco's restaurant that shares the same parking lot.  Although I was not traveling alone on this trip, I would have felt perfectly comfortable staying there as a single female traveler.  There was sufficient parking for several larger vehicles or vehicles with trailers, but we arrived a bit later than expected--just before 9pm--and found one of the last multiple-space spots available.  I would plan to arrive a bit earlier in the evening if space for your vehicle is a concern since other travelers with larger vehicles obviously had our same idea.The room was well appointed and well lit.  My only complaint was that we found the bed a bit firm, but that's an issue that is a personal one and certainly wouldn't keep us from staying there again.Although we had brought our own food to take advantage of the kitchen, I appreciated the 'grab and go' goodies in the foyer, including coffee, fruit, and granola bars.Overall this is a great property and one that we will add to our hotel choices for our North-South trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded September 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2013</t>
+  </si>
+  <si>
+    <t>I chose the Extended Stay America because of its proximity to the Grapevine.  My husband and I were traveling south from Northern California on a business trip with our cargo trailer and needed a hotel that 1) was in the L.A. Basin, but not to far, timewise, from the Grapevine, 2) had enough parking to accommodate our truck and trailer, 3) was economical.  This hotel met all three qualifications nicely.  The property was clean with a Coco's restaurant that shares the same parking lot.  Although I was not traveling alone on this trip, I would have felt perfectly comfortable staying there as a single female traveler.  
+There was sufficient parking for several larger vehicles or vehicles with trailers, but we arrived a bit later than expected--just before 9pm--and found one of the last multiple-space spots available.  I would plan to arrive a bit earlier in the evening if space for your vehicle is a concern since other travelers with larger vehicles obviously had our same idea.
+The room was well appointed and well lit.  My only complaint was that we found the bed a bit firm, but that's an issue that is a personal one and certainly wouldn't keep us from staying there again.
+Although we had brought our own food to take advantage of the kitchen, I appreciated the 'grab and go' goodies in the foyer, including coffee, fruit, and granola bars.
+Overall this is a great property and...I chose the Extended Stay America because of its proximity to the Grapevine.  My husband and I were traveling south from Northern California on a business trip with our cargo trailer and needed a hotel that 1) was in the L.A. Basin, but not to far, timewise, from the Grapevine, 2) had enough parking to accommodate our truck and trailer, 3) was economical.  This hotel met all three qualifications nicely.  The property was clean with a Coco's restaurant that shares the same parking lot.  Although I was not traveling alone on this trip, I would have felt perfectly comfortable staying there as a single female traveler.  There was sufficient parking for several larger vehicles or vehicles with trailers, but we arrived a bit later than expected--just before 9pm--and found one of the last multiple-space spots available.  I would plan to arrive a bit earlier in the evening if space for your vehicle is a concern since other travelers with larger vehicles obviously had our same idea.The room was well appointed and well lit.  My only complaint was that we found the bed a bit firm, but that's an issue that is a personal one and certainly wouldn't keep us from staying there again.Although we had brought our own food to take advantage of the kitchen, I appreciated the 'grab and go' goodies in the foyer, including coffee, fruit, and granola bars.Overall this is a great property and one that we will add to our hotel choices for our North-South trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r168826153-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>168826153</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>good value</t>
+  </si>
+  <si>
+    <t>we found the staff at the hotel to be very helpful and pleasant and the hotel is in a great location for visiting 6 flags theme park which is where we were going.check in and out was flawless. the rooms were a reasonable standard and my only complaint was we found the air conditioning unit nosier than normalMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2013</t>
+  </si>
+  <si>
+    <t>we found the staff at the hotel to be very helpful and pleasant and the hotel is in a great location for visiting 6 flags theme park which is where we were going.check in and out was flawless. the rooms were a reasonable standard and my only complaint was we found the air conditioning unit nosier than normalMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r168454772-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>168454772</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>Great Staff, Nice Suite</t>
+  </si>
+  <si>
+    <t>My nephew and I stayed here on July 15th-17th so that we would have easy access to Six Flags Magic Mountain during our visit.  The staff was phenomenal.  Jacqui and Ahlysa (I may not be remembering her name correctly), did everything to make our stay pleasant.  They have fabulous, friendly personalities.  We were fortunate to have our room upgraded to a suite, so we were able to cook dinner in our room.  We had a full fridge, microwave, sink, and dinner dishes, so we were exceptionally comfortable in our spacious room.  The Coco's Restaurant next door had some very nice meals.  It was just a short walk to brunch.  The weather was beautiful while we visited and the people were all so helpful.  I would definitely book this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2013</t>
+  </si>
+  <si>
+    <t>My nephew and I stayed here on July 15th-17th so that we would have easy access to Six Flags Magic Mountain during our visit.  The staff was phenomenal.  Jacqui and Ahlysa (I may not be remembering her name correctly), did everything to make our stay pleasant.  They have fabulous, friendly personalities.  We were fortunate to have our room upgraded to a suite, so we were able to cook dinner in our room.  We had a full fridge, microwave, sink, and dinner dishes, so we were exceptionally comfortable in our spacious room.  The Coco's Restaurant next door had some very nice meals.  It was just a short walk to brunch.  The weather was beautiful while we visited and the people were all so helpful.  I would definitely book this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r168346016-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>168346016</t>
+  </si>
+  <si>
+    <t>07/20/2013</t>
+  </si>
+  <si>
+    <t>Don't have rooms ready on time!!!</t>
+  </si>
+  <si>
+    <t>Showed up an hour and a half after check in and was told my room still was not ready.... They said it would be ready in 10 minutes... Ten minutes went by and they ask if I was waiting for my room... I said yes I'm still waiting to be checked in... They then told me fifteen more minutes!!!  My daughter had to use the restroom so bad she was gonna pee herself... She ended up using the employee bathroom after climbing over all the bags of laundry in the laundry room! I ask if they could at least discount the room and they said no ma'am not at all... worst check in ever!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Showed up an hour and a half after check in and was told my room still was not ready.... They said it would be ready in 10 minutes... Ten minutes went by and they ask if I was waiting for my room... I said yes I'm still waiting to be checked in... They then told me fifteen more minutes!!!  My daughter had to use the restroom so bad she was gonna pee herself... She ended up using the employee bathroom after climbing over all the bags of laundry in the laundry room! I ask if they could at least discount the room and they said no ma'am not at all... worst check in ever!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r166236596-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>166236596</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Not suitable for a couple trying to get away from the their kids for a weekend!!</t>
+  </si>
+  <si>
+    <t>I was absolutly blown away with discust when I walked in the room to find a kitchen sink filled with backed up water...... hallways smelled, toilet kept bubbling water all night. I would not recommend this facility to Anyone.....       room #217</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r166222224-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>166222224</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>The hotel smells like smoke. The room was dirty and the floor was sticky. I got a good deal through Priceline....when I checked in the clerk gave us a room with one queen bed. I asked him if he could gives us another room with 2 queen beds since I was traveling with my husband and my daughter. The clerk told us that he did not have any rooms available. It was around 4:00pm..... So I checked online and they did have rooms with 2 queen beds....LIARS.... Please spend more money and go to a better hotel. That's what I did.....MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2013</t>
+  </si>
+  <si>
+    <t>The hotel smells like smoke. The room was dirty and the floor was sticky. I got a good deal through Priceline....when I checked in the clerk gave us a room with one queen bed. I asked him if he could gives us another room with 2 queen beds since I was traveling with my husband and my daughter. The clerk told us that he did not have any rooms available. It was around 4:00pm..... So I checked online and they did have rooms with 2 queen beds....LIARS.... Please spend more money and go to a better hotel. That's what I did.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r165927280-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>165927280</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>It's the best</t>
+  </si>
+  <si>
+    <t>Will make this hotel our home away from home. We were really happy with the room and amenities. We come to the valley often and will stay at this hotel from now on. We were happy to be able to bring our dog and that was most important. And we enjoyed everything.We don't use the pool and gym so we didn't miss it.  We also liked the location so close to everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2013</t>
+  </si>
+  <si>
+    <t>Will make this hotel our home away from home. We were really happy with the room and amenities. We come to the valley often and will stay at this hotel from now on. We were happy to be able to bring our dog and that was most important. And we enjoyed everything.We don't use the pool and gym so we didn't miss it.  We also liked the location so close to everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r161941752-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>161941752</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Functional &amp; Affordable</t>
+  </si>
+  <si>
+    <t>Just spent a couple days at this hotel and I must say it fit the bill for our needs. Sure it is not a perfect property, no pool, ho-hum continental breakfast, no exercise room, etc. But it was very affordable considering this is the Labor Day weekend and most other hotels were fully book and charging high prices. What is lacked in amenities, it make up with good service, clean rooms and being close to Magic Mountain. The rooms were big and had fridge, cooktop and microwave. For those traveling with families this can be a real bonus money saver if you don't mind cooking. Another bonus for dog lovers is they have a secluded dog walk out back as well. Our stay was quiet and no disturbances from the usual running kids. Not even a peep from neighbors. It's a short drive away from Magic Mountain, so you can get your hand stamped for re-entry, drive back for a homey meal, and go back to the park easily. Sure beats the ridiculous prices Six Flags charges for food.. I was equally happy with the very fast check-in by John at the front desk. All staff were helpful and courteous, which is what I prefer most over star amenities. So next time you want a clean, affordable and function place to stay in town, please give them a try.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Just spent a couple days at this hotel and I must say it fit the bill for our needs. Sure it is not a perfect property, no pool, ho-hum continental breakfast, no exercise room, etc. But it was very affordable considering this is the Labor Day weekend and most other hotels were fully book and charging high prices. What is lacked in amenities, it make up with good service, clean rooms and being close to Magic Mountain. The rooms were big and had fridge, cooktop and microwave. For those traveling with families this can be a real bonus money saver if you don't mind cooking. Another bonus for dog lovers is they have a secluded dog walk out back as well. Our stay was quiet and no disturbances from the usual running kids. Not even a peep from neighbors. It's a short drive away from Magic Mountain, so you can get your hand stamped for re-entry, drive back for a homey meal, and go back to the park easily. Sure beats the ridiculous prices Six Flags charges for food.. I was equally happy with the very fast check-in by John at the front desk. All staff were helpful and courteous, which is what I prefer most over star amenities. So next time you want a clean, affordable and function place to stay in town, please give them a try.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r161441539-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>161441539</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>horrible experience</t>
+  </si>
+  <si>
+    <t>With its great location and flexability for a night to night basis I was excited to stay. Once inside the room, the floor was soaking, I mean soaking wet I assume from cleaning but there was so much water that I slipped and fell on the laminet floor in the connecting kitchen. Having a crawling baby, we were confined to the bed for his crawls and he sneezed all night, I beleive due to the musty wet room. The front desk was less than helpful. I was hoping to address this matter and I stood at the front for about 30 min while he tended to the staff break room and ran by me to grab the phone and talk for 20 minutes. When I approched him he was short and running around. Check out took 30 minutes as well as he was not at the desk and not until my baby cried did he come out to help.I went to the hotel down the street and I could not get out fast enough. I stayed with them for a week.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2013</t>
+  </si>
+  <si>
+    <t>With its great location and flexability for a night to night basis I was excited to stay. Once inside the room, the floor was soaking, I mean soaking wet I assume from cleaning but there was so much water that I slipped and fell on the laminet floor in the connecting kitchen. Having a crawling baby, we were confined to the bed for his crawls and he sneezed all night, I beleive due to the musty wet room. The front desk was less than helpful. I was hoping to address this matter and I stood at the front for about 30 min while he tended to the staff break room and ran by me to grab the phone and talk for 20 minutes. When I approched him he was short and running around. Check out took 30 minutes as well as he was not at the desk and not until my baby cried did he come out to help.I went to the hotel down the street and I could not get out fast enough. I stayed with them for a week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r159732800-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>159732800</t>
+  </si>
+  <si>
+    <t>05/05/2013</t>
+  </si>
+  <si>
+    <t>Perfect for travelling through</t>
+  </si>
+  <si>
+    <t>A friend and I were on our way from San Francisco to Indio and needed a place to sleep for just 1 night. The location is ideal. Just north of the hustle and bustle of LA, but next to the I-5 to make a quick getaway. Also, there are shops right across the road. The room was clean. The kitchen is very handy. Bathroom spacious. Big, comfy bed. Accommodating staff. Couldn't ask for more really. My only issue is the utilitarian feel of the room and surrounds. There isn't a homey feel about the place, but I suppose some people would like that.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>A friend and I were on our way from San Francisco to Indio and needed a place to sleep for just 1 night. The location is ideal. Just north of the hustle and bustle of LA, but next to the I-5 to make a quick getaway. Also, there are shops right across the road. The room was clean. The kitchen is very handy. Bathroom spacious. Big, comfy bed. Accommodating staff. Couldn't ask for more really. My only issue is the utilitarian feel of the room and surrounds. There isn't a homey feel about the place, but I suppose some people would like that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r156165652-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>156165652</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>Good value, but nothing special.</t>
+  </si>
+  <si>
+    <t>The room was large and spacey, the bed was uncomfortable but I can't complain too much when we got the room for 60$ a night. The biggest problem I had was the management waking us up at 12 am because they forgot we had checked in and put us in our room, mistakes happen I know but they handled it very unprofessionally. Also the continental breakfast was old apple and oranges and fruit bar. MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded April 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2013</t>
+  </si>
+  <si>
+    <t>The room was large and spacey, the bed was uncomfortable but I can't complain too much when we got the room for 60$ a night. The biggest problem I had was the management waking us up at 12 am because they forgot we had checked in and put us in our room, mistakes happen I know but they handled it very unprofessionally. Also the continental breakfast was old apple and oranges and fruit bar. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r156128125-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>156128125</t>
+  </si>
+  <si>
+    <t>Good for long stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 and a half months. It's okay though the price was a bit high. The room quality was good. The furniture were well-furnished. The bus stop was right in front of the hotel so it's very convenient. There are many store and good restaurants near the hotel. Plus, the the staff were nice and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 and a half months. It's okay though the price was a bit high. The room quality was good. The furniture were well-furnished. The bus stop was right in front of the hotel so it's very convenient. There are many store and good restaurants near the hotel. Plus, the the staff were nice and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r155358705-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>155358705</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>I was in between housing situations and had to stay at the hotel for 1 month. I loved it. As a single mother of two, money is always an issue so having the convienence of my own kitchen, I was able to save money by preparing home cooked meals for my daughters. The staff was very friendly and accomodating, and the room was very comfortable. I really enjoyed my stay here and would recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2013</t>
+  </si>
+  <si>
+    <t>I was in between housing situations and had to stay at the hotel for 1 month. I loved it. As a single mother of two, money is always an issue so having the convienence of my own kitchen, I was able to save money by preparing home cooked meals for my daughters. The staff was very friendly and accomodating, and the room was very comfortable. I really enjoyed my stay here and would recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r153972072-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>153972072</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>class and excellence all the way</t>
+  </si>
+  <si>
+    <t>I would highly recommend  this extended stay to everyone!!!  The manager Anthony is so friendly and accomadating. Also Jaquie at the front desk is so nice and helpful always. Also at the front desk is John and he is always friendly and helpful too. The rooms are very, very clean and the cleaning staff does an excellent job as well! I was very pleased with my 40 day stay here!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded March 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2013</t>
+  </si>
+  <si>
+    <t>I would highly recommend  this extended stay to everyone!!!  The manager Anthony is so friendly and accomadating. Also Jaquie at the front desk is so nice and helpful always. Also at the front desk is John and he is always friendly and helpful too. The rooms are very, very clean and the cleaning staff does an excellent job as well! I was very pleased with my 40 day stay here!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r153346663-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>153346663</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>I had to come back into town again and my second visit at the extended stay Valencia was just as good as my first.</t>
+  </si>
+  <si>
+    <t>I came back to Santa Clarita on business again and stayed at the extended stay Valencia again. Once again Jaquie at the front desk was very friendly and helpful. The manager there Anthony even came over and welcomed me back. My room was very clean and I even saved money on being able to cook and eat in. It was nice to be able to go strait back to my room instead of a crowded restaurant. I have no doubt I will stay there on my next business trip also.MoreShow less</t>
+  </si>
+  <si>
+    <t>I came back to Santa Clarita on business again and stayed at the extended stay Valencia again. Once again Jaquie at the front desk was very friendly and helpful. The manager there Anthony even came over and welcomed me back. My room was very clean and I even saved money on being able to cook and eat in. It was nice to be able to go strait back to my room instead of a crowded restaurant. I have no doubt I will stay there on my next business trip also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r152230831-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>152230831</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>The Extended Stay America has made my stay incredible.</t>
+  </si>
+  <si>
+    <t>The Extended Stay is a wonderful and family friendly hotel that makes you feel right at home. From the beautiful view to the extremely helpful and delightful workers, my stay was magnificant. I could'nt imagine staying at any other hotel after staying here. I love the Extended Stay, because its so clean and comfortable and overall great. I would recommend it to anyone who is looking for some place thats affordable yet luxorious.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>The Extended Stay is a wonderful and family friendly hotel that makes you feel right at home. From the beautiful view to the extremely helpful and delightful workers, my stay was magnificant. I could'nt imagine staying at any other hotel after staying here. I love the Extended Stay, because its so clean and comfortable and overall great. I would recommend it to anyone who is looking for some place thats affordable yet luxorious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r151666493-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>151666493</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>Awesome hotel better staff</t>
+  </si>
+  <si>
+    <t>Stayed here recently whole visiting family and will definitely be back! Price was great, amenities were awesome and jaquie at the desk was so helpful with everything.  I really don't see us staying anywhere else when in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded February 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here recently whole visiting family and will definitely be back! Price was great, amenities were awesome and jaquie at the desk was so helpful with everything.  I really don't see us staying anywhere else when in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r150540193-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>150540193</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>Place away from home</t>
+  </si>
+  <si>
+    <t>I stayed at this site for three months.  The staff was very friendly.  They made me feel very welcome and homey.  Being away from home during the holidays are rough but when you have staff such as these guys, it made my stay and holidays much more pleasant.  I would definitely recommend and stay at this location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded February 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2013</t>
+  </si>
+  <si>
+    <t>I stayed at this site for three months.  The staff was very friendly.  They made me feel very welcome and homey.  Being away from home during the holidays are rough but when you have staff such as these guys, it made my stay and holidays much more pleasant.  I would definitely recommend and stay at this location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r150510703-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>150510703</t>
+  </si>
+  <si>
+    <t>"Best Hotel experience ever"</t>
+  </si>
+  <si>
+    <t>This hotel is amazing, neither me nor my family want to go home! we are staying here due to some remodeling that is going on in our home, and honestly i can say that this is like a second home to us. Everything is within walking distance, from delicious restaurants to fast food, to places to shop at. The service is amazing and the staff is very helpful and pleasant, Jackie is the sweetest and she will answer all your questions to the best of her knowledge!!The grab and go breakfast is very tasty which is a plus! If you are looking for a hotel to stay at this is the place to go!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Val M, General Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is amazing, neither me nor my family want to go home! we are staying here due to some remodeling that is going on in our home, and honestly i can say that this is like a second home to us. Everything is within walking distance, from delicious restaurants to fast food, to places to shop at. The service is amazing and the staff is very helpful and pleasant, Jackie is the sweetest and she will answer all your questions to the best of her knowledge!!The grab and go breakfast is very tasty which is a plus! If you are looking for a hotel to stay at this is the place to go!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r143308557-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>143308557</t>
+  </si>
+  <si>
+    <t>10/20/2012</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Great service, with safe and clean surroundings, In walking distants to shopping and food. With indoorlaundry area a most when your on the road. Also a fantastic Grab an Go Breakfast. A gratkichenarea for cooking in.Will diffantantlyreturn for another stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded October 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2012</t>
+  </si>
+  <si>
+    <t>Great service, with safe and clean surroundings, In walking distants to shopping and food. With indoorlaundry area a most when your on the road. Also a fantastic Grab an Go Breakfast. A gratkichenarea for cooking in.Will diffantantlyreturn for another stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r137295395-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>137295395</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>staffs are nice, but dirty..</t>
+  </si>
+  <si>
+    <t>staffs in front desk are really really nice. i think they are one of the best in my experience. but... room was dirty and smells. i found a cupcake on the shelf when i checked in. not welcome snack, somebody's leftovers....MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Val M, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded August 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2012</t>
+  </si>
+  <si>
+    <t>staffs in front desk are really really nice. i think they are one of the best in my experience. but... room was dirty and smells. i found a cupcake on the shelf when i checked in. not welcome snack, somebody's leftovers....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r137227164-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>137227164</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>Best Ever</t>
+  </si>
+  <si>
+    <t>I have travelled on company business 4-nights per week for the last three years staying at nearly every hotel/ motel chain in the U.S. including many other Extended Stays. I don't cut costs but do look for value. This property is "heads and shoulders" above the normal places I have stayed. Exceptionally clean and fresh! The location near great restaurants, fast foodand shopping is perfect. Although I don't take my dog on business trips this property is pet friendly and I enjoy seeing this special accomodation for our 4-legged friends. But best of all, Jaquie at the desk is the most pleasant, helpful and resopnsive receptionist I've come across.....ever!!!.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I have travelled on company business 4-nights per week for the last three years staying at nearly every hotel/ motel chain in the U.S. including many other Extended Stays. I don't cut costs but do look for value. This property is "heads and shoulders" above the normal places I have stayed. Exceptionally clean and fresh! The location near great restaurants, fast foodand shopping is perfect. Although I don't take my dog on business trips this property is pet friendly and I enjoy seeing this special accomodation for our 4-legged friends. But best of all, Jaquie at the desk is the most pleasant, helpful and resopnsive receptionist I've come across.....ever!!!.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r135186510-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>135186510</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>Not a place to stay if you are there less then 2 weeks!</t>
+  </si>
+  <si>
+    <t>In the last week of June 2012. My family and I were in the Santa Clarita California visiting family. My wife found this hotel on hotels.com. The Extended Stay hotel in Stevenson Ranch which is a community of Santa Clarita. The hotel advertises themselves as a vacation &amp; weekend stay hotel as well as for short &amp; long term stay.  The room rate was about the same as some the other hotels in the area. However, they do not tell you up front is that if you stay less than 2 weeks they do not provide housekeeping services, unless you pay addition $6.00 -$7.00 a day! At that price it is basically making the beds, taking out the trash, and giving you clean towels! Very little cleaning that the maid does.  
+Another issue I had with housekeeping is that the desk clerk on duty at the time could tell me what the charge would be for someone staying less than 2 weeks? So I had to come back down to the front later in the evening and request to speak to someone that knew what to charge me for 3 days of room cleaning services! The last thing that really was made me angry was, a week after the stay, I was reviewing my bank statement and discovered that they charged me again for $9.00 after charging me up front for housekeeping services? What poor customer service! Never again will...In the last week of June 2012. My family and I were in the Santa Clarita California visiting family. My wife found this hotel on hotels.com. The Extended Stay hotel in Stevenson Ranch which is a community of Santa Clarita. The hotel advertises themselves as a vacation &amp; weekend stay hotel as well as for short &amp; long term stay.  The room rate was about the same as some the other hotels in the area. However, they do not tell you up front is that if you stay less than 2 weeks they do not provide housekeeping services, unless you pay addition $6.00 -$7.00 a day! At that price it is basically making the beds, taking out the trash, and giving you clean towels! Very little cleaning that the maid does.  Another issue I had with housekeeping is that the desk clerk on duty at the time could tell me what the charge would be for someone staying less than 2 weeks? So I had to come back down to the front later in the evening and request to speak to someone that knew what to charge me for 3 days of room cleaning services! The last thing that really was made me angry was, a week after the stay, I was reviewing my bank statement and discovered that they charged me again for $9.00 after charging me up front for housekeeping services? What poor customer service! Never again will I stay at this hotel nor would ever recommend it to anyone!Additional complains were:- Dust &amp; lint balls under the beds and behind the dresser- The windows had dirt build up along the window seal.  - The center bed frame support had came loose and fallen down.- The Shower curtain allow water to spray onto the bathroom floor- The hallway on the 2rd floor had a strong musty smell. (it smell similar to dirty laundry)  - The rubber non-slip flooring  in the back exiting  stairway leading to the parking lot had a strong chemical / musty smell the entire time we were there at hotel- One of the beds in the room had a mattress protector that had stains.For the same price we would have been better off staying down the street at the Hyatt or Marriott and would have gotten full service house cleaning services as well as a cleaner room.  I do not recommend the Extended Stay hotel in Stevenson ranch in Santa Clarita Ca. if you are staying for a couple days or just for the weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded August 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2012</t>
+  </si>
+  <si>
+    <t>In the last week of June 2012. My family and I were in the Santa Clarita California visiting family. My wife found this hotel on hotels.com. The Extended Stay hotel in Stevenson Ranch which is a community of Santa Clarita. The hotel advertises themselves as a vacation &amp; weekend stay hotel as well as for short &amp; long term stay.  The room rate was about the same as some the other hotels in the area. However, they do not tell you up front is that if you stay less than 2 weeks they do not provide housekeeping services, unless you pay addition $6.00 -$7.00 a day! At that price it is basically making the beds, taking out the trash, and giving you clean towels! Very little cleaning that the maid does.  
+Another issue I had with housekeeping is that the desk clerk on duty at the time could tell me what the charge would be for someone staying less than 2 weeks? So I had to come back down to the front later in the evening and request to speak to someone that knew what to charge me for 3 days of room cleaning services! The last thing that really was made me angry was, a week after the stay, I was reviewing my bank statement and discovered that they charged me again for $9.00 after charging me up front for housekeeping services? What poor customer service! Never again will...In the last week of June 2012. My family and I were in the Santa Clarita California visiting family. My wife found this hotel on hotels.com. The Extended Stay hotel in Stevenson Ranch which is a community of Santa Clarita. The hotel advertises themselves as a vacation &amp; weekend stay hotel as well as for short &amp; long term stay.  The room rate was about the same as some the other hotels in the area. However, they do not tell you up front is that if you stay less than 2 weeks they do not provide housekeeping services, unless you pay addition $6.00 -$7.00 a day! At that price it is basically making the beds, taking out the trash, and giving you clean towels! Very little cleaning that the maid does.  Another issue I had with housekeeping is that the desk clerk on duty at the time could tell me what the charge would be for someone staying less than 2 weeks? So I had to come back down to the front later in the evening and request to speak to someone that knew what to charge me for 3 days of room cleaning services! The last thing that really was made me angry was, a week after the stay, I was reviewing my bank statement and discovered that they charged me again for $9.00 after charging me up front for housekeeping services? What poor customer service! Never again will I stay at this hotel nor would ever recommend it to anyone!Additional complains were:- Dust &amp; lint balls under the beds and behind the dresser- The windows had dirt build up along the window seal.  - The center bed frame support had came loose and fallen down.- The Shower curtain allow water to spray onto the bathroom floor- The hallway on the 2rd floor had a strong musty smell. (it smell similar to dirty laundry)  - The rubber non-slip flooring  in the back exiting  stairway leading to the parking lot had a strong chemical / musty smell the entire time we were there at hotel- One of the beds in the room had a mattress protector that had stains.For the same price we would have been better off staying down the street at the Hyatt or Marriott and would have gotten full service house cleaning services as well as a cleaner room.  I do not recommend the Extended Stay hotel in Stevenson ranch in Santa Clarita Ca. if you are staying for a couple days or just for the weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r135152011-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>135152011</t>
+  </si>
+  <si>
+    <t>Think Twice</t>
+  </si>
+  <si>
+    <t>Aside from the staff, who were excellent, this hotel is nowhere near the quality you should receive for the price charged.The place seems to be falling apart (the sink and drains are rusted out; the walls have big holes/cracks in them; and the furniture is stained, chipped and worn).  The kitchenette, which was a selling point for us, is under stocked (only two plates and two of each of the utensils) and kinda gross (greasy, not clean).The worst part of all is how thin the walls and floors are.  You can easily hear people talking and walking above and around you.While we were here, they were renting many of the rooms to foreign exchange students who are working in the local amusement parks/attractions.  Like most normal exchange students, they were partying through the night (which did not mix well with the very thin walls). To their credit, the management did cut us a break on the room rate when we complained of our largely sleepless night.  The students are apparently scheduled to be here through early September, so I'd definitely avoid the place at least until then.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Aside from the staff, who were excellent, this hotel is nowhere near the quality you should receive for the price charged.The place seems to be falling apart (the sink and drains are rusted out; the walls have big holes/cracks in them; and the furniture is stained, chipped and worn).  The kitchenette, which was a selling point for us, is under stocked (only two plates and two of each of the utensils) and kinda gross (greasy, not clean).The worst part of all is how thin the walls and floors are.  You can easily hear people talking and walking above and around you.While we were here, they were renting many of the rooms to foreign exchange students who are working in the local amusement parks/attractions.  Like most normal exchange students, they were partying through the night (which did not mix well with the very thin walls). To their credit, the management did cut us a break on the room rate when we complained of our largely sleepless night.  The students are apparently scheduled to be here through early September, so I'd definitely avoid the place at least until then.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r132003269-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>132003269</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>College dorm revisited (NOT a good thing)</t>
+  </si>
+  <si>
+    <t>From the moment we walked into this place, we knew it wouldn't be good. Over the course of the evening, it turned out to be exactly what we'd thought...
+Due to extenuating circumstances, we had been forced into hotel living. The hotel we had been staying at was going through a forced power outage and was closing for 24 hours. We ended up here because it was cheaper than any of the other local hotels that accept pets, a major concern for us.
+When we booked, we arranged an early check-in, because of the pets. We walked into the lobby less than 10 minutes before noon, the agreed upon check-in time. Now, I do get that an agreement is an agreement, but would five minutes really end the world? Apparently so, as the "gentleman" behind the counter refused to check us in until after noon, at that point just 5 minutes away. Had he explained that the computers wouldn't allow an earlier check-in, we would not have blinked, and quietly waited. The attitude we got from the "gentleman" was absolutely ridiculous, though...and a harbinger for what was to come.
+We finally get to the room, and as my girlfriend put it, "it's my college dorm, only smaller". Dark, dingy carpets, gold walls...really? Gold walls? Could you be any uglier if you tried? 
+We checked on the wifi, and it's an additional charge to access theirs. Really? If McDonald's and Starbucks...From the moment we walked into this place, we knew it wouldn't be good. Over the course of the evening, it turned out to be exactly what we'd thought...Due to extenuating circumstances, we had been forced into hotel living. The hotel we had been staying at was going through a forced power outage and was closing for 24 hours. We ended up here because it was cheaper than any of the other local hotels that accept pets, a major concern for us.When we booked, we arranged an early check-in, because of the pets. We walked into the lobby less than 10 minutes before noon, the agreed upon check-in time. Now, I do get that an agreement is an agreement, but would five minutes really end the world? Apparently so, as the "gentleman" behind the counter refused to check us in until after noon, at that point just 5 minutes away. Had he explained that the computers wouldn't allow an earlier check-in, we would not have blinked, and quietly waited. The attitude we got from the "gentleman" was absolutely ridiculous, though...and a harbinger for what was to come.We finally get to the room, and as my girlfriend put it, "it's my college dorm, only smaller". Dark, dingy carpets, gold walls...really? Gold walls? Could you be any uglier if you tried? We checked on the wifi, and it's an additional charge to access theirs. Really? If McDonald's and Starbucks can offer free wifi, why can't a national hotel chain? Especially one that doesn't have to offer amenities like bath supplies or coffee in the room...we paid the fee, but only after our good friend refused to allow us to put it on the credit card used to secure the room. We generally don't use credit cards, so a family member secured the room for us, and we'll reimburse them after the bill is closed, as we have many times in the past. To be told we can't add any charges because "we were specifically told not to allow anything to be charged to the room", when we knew that was not true...well, that guaranteed a crappy rating right there. The kitchenette was about as expected, which to say moderately clean, with functional appliances. Did I say functional? If you count a refrigerator with a motor that sounds like it's ready to explode functional, than you're good to go. The bathroom was tiny, with a crappy shower head and no water pressure. The lighting in there was functional, but not especially bright.The furniture is brutal, with the exception of the recliner in the corner. That was decent...the office chair provided for the "desk" would have been good except for the very questionable stain on the seat. The other furniture was stuff you'd expect to see at the local Goodwill, which makes perfect sense, since the local Goodwill is right across the street. Now let's talk about the "bed". I've slept on more comfortable concrete...and queen size? I don't think so. I'm a pretty big guy, and we own a queen bed ourselves. I can't lay in the middle of our bed and hang my feet off each side of it like I can this thing. Oddly enough, I could easily do it on the double bed I slept in before I moved in with my girlfriend...I'm writing this at 1am, as I just can't find a comfortable spot on the bed, and have moved to the recliner to try to make myself more tired...we'll see how the requested late check-out goes, and how easy or difficult the check-out process is...10:21 am - The late check-out went well, and the process itself was painless. I will say that the staff has been very friendly, with the aforementioned exception. The girl running the desk in particular was very friendly, smiling to everyone she saw. Anthony, the general manager, was incredibly helpful, and was one of the only saving graces to an experience endured, not enjoyed.Needless to say, this is an adventure never to be repeated...MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>From the moment we walked into this place, we knew it wouldn't be good. Over the course of the evening, it turned out to be exactly what we'd thought...
+Due to extenuating circumstances, we had been forced into hotel living. The hotel we had been staying at was going through a forced power outage and was closing for 24 hours. We ended up here because it was cheaper than any of the other local hotels that accept pets, a major concern for us.
+When we booked, we arranged an early check-in, because of the pets. We walked into the lobby less than 10 minutes before noon, the agreed upon check-in time. Now, I do get that an agreement is an agreement, but would five minutes really end the world? Apparently so, as the "gentleman" behind the counter refused to check us in until after noon, at that point just 5 minutes away. Had he explained that the computers wouldn't allow an earlier check-in, we would not have blinked, and quietly waited. The attitude we got from the "gentleman" was absolutely ridiculous, though...and a harbinger for what was to come.
+We finally get to the room, and as my girlfriend put it, "it's my college dorm, only smaller". Dark, dingy carpets, gold walls...really? Gold walls? Could you be any uglier if you tried? 
+We checked on the wifi, and it's an additional charge to access theirs. Really? If McDonald's and Starbucks...From the moment we walked into this place, we knew it wouldn't be good. Over the course of the evening, it turned out to be exactly what we'd thought...Due to extenuating circumstances, we had been forced into hotel living. The hotel we had been staying at was going through a forced power outage and was closing for 24 hours. We ended up here because it was cheaper than any of the other local hotels that accept pets, a major concern for us.When we booked, we arranged an early check-in, because of the pets. We walked into the lobby less than 10 minutes before noon, the agreed upon check-in time. Now, I do get that an agreement is an agreement, but would five minutes really end the world? Apparently so, as the "gentleman" behind the counter refused to check us in until after noon, at that point just 5 minutes away. Had he explained that the computers wouldn't allow an earlier check-in, we would not have blinked, and quietly waited. The attitude we got from the "gentleman" was absolutely ridiculous, though...and a harbinger for what was to come.We finally get to the room, and as my girlfriend put it, "it's my college dorm, only smaller". Dark, dingy carpets, gold walls...really? Gold walls? Could you be any uglier if you tried? We checked on the wifi, and it's an additional charge to access theirs. Really? If McDonald's and Starbucks can offer free wifi, why can't a national hotel chain? Especially one that doesn't have to offer amenities like bath supplies or coffee in the room...we paid the fee, but only after our good friend refused to allow us to put it on the credit card used to secure the room. We generally don't use credit cards, so a family member secured the room for us, and we'll reimburse them after the bill is closed, as we have many times in the past. To be told we can't add any charges because "we were specifically told not to allow anything to be charged to the room", when we knew that was not true...well, that guaranteed a crappy rating right there. The kitchenette was about as expected, which to say moderately clean, with functional appliances. Did I say functional? If you count a refrigerator with a motor that sounds like it's ready to explode functional, than you're good to go. The bathroom was tiny, with a crappy shower head and no water pressure. The lighting in there was functional, but not especially bright.The furniture is brutal, with the exception of the recliner in the corner. That was decent...the office chair provided for the "desk" would have been good except for the very questionable stain on the seat. The other furniture was stuff you'd expect to see at the local Goodwill, which makes perfect sense, since the local Goodwill is right across the street. Now let's talk about the "bed". I've slept on more comfortable concrete...and queen size? I don't think so. I'm a pretty big guy, and we own a queen bed ourselves. I can't lay in the middle of our bed and hang my feet off each side of it like I can this thing. Oddly enough, I could easily do it on the double bed I slept in before I moved in with my girlfriend...I'm writing this at 1am, as I just can't find a comfortable spot on the bed, and have moved to the recliner to try to make myself more tired...we'll see how the requested late check-out goes, and how easy or difficult the check-out process is...10:21 am - The late check-out went well, and the process itself was painless. I will say that the staff has been very friendly, with the aforementioned exception. The girl running the desk in particular was very friendly, smiling to everyone she saw. Anthony, the general manager, was incredibly helpful, and was one of the only saving graces to an experience endured, not enjoyed.Needless to say, this is an adventure never to be repeated...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r130371837-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>130371837</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>My Stay</t>
+  </si>
+  <si>
+    <t>I had a wonderful time during my stay in the hotel. I was surprised to find the hotel had just undergone a renovation and the room was very nice. The bed was new and very comfortable and the hotel staff were very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Valencia, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>I had a wonderful time during my stay in the hotel. I was surprised to find the hotel had just undergone a renovation and the room was very nice. The bed was new and very comfortable and the hotel staff were very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r130371688-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>130371688</t>
+  </si>
+  <si>
+    <t>Great place to stay for any trip!</t>
+  </si>
+  <si>
+    <t>Very nice hotel! Service was great. Great location as well. Not far from anything that you'd need. Room was clean and well kept. I'll be staying there again soon for sure! Just an overall amazing place with great staff and rooms! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice hotel! Service was great. Great location as well. Not far from anything that you'd need. Room was clean and well kept. I'll be staying there again soon for sure! Just an overall amazing place with great staff and rooms! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r130010255-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
+  </si>
+  <si>
+    <t>130010255</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>Only place I'll stay when I have to come back.</t>
+  </si>
+  <si>
+    <t>Had a great stay and compared to the extended stay I was at in virginia this place was awesome. I love cooking so the kitchen was perfect. Staff was frendly and jackie at the front was funny and extremely helpful. Id come back just for that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a great stay and compared to the extended stay I was at in virginia this place was awesome. I love cooking so the kitchen was perfect. Staff was frendly and jackie at the front was funny and extremely helpful. Id come back just for that.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2514,5049 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>174</v>
+      </c>
+      <c r="X16" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>218</v>
+      </c>
+      <c r="X21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>235</v>
+      </c>
+      <c r="X23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>243</v>
+      </c>
+      <c r="X24" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>247</v>
+      </c>
+      <c r="J25" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" t="s">
+        <v>249</v>
+      </c>
+      <c r="L25" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>251</v>
+      </c>
+      <c r="O25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" t="s">
+        <v>258</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>259</v>
+      </c>
+      <c r="X27" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>269</v>
+      </c>
+      <c r="J28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>257</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>259</v>
+      </c>
+      <c r="X28" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>275</v>
+      </c>
+      <c r="J29" t="s">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s">
+        <v>278</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>279</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>280</v>
+      </c>
+      <c r="X29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>287</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>289</v>
+      </c>
+      <c r="X30" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>293</v>
+      </c>
+      <c r="J31" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L31" t="s">
+        <v>296</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>288</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" t="s">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s">
+        <v>301</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>302</v>
+      </c>
+      <c r="O32" t="s">
+        <v>99</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>303</v>
+      </c>
+      <c r="X32" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>311</v>
+      </c>
+      <c r="X33" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" t="s">
+        <v>318</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>319</v>
+      </c>
+      <c r="O34" t="s">
+        <v>258</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>320</v>
+      </c>
+      <c r="X34" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" t="s">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s">
+        <v>327</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>328</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>329</v>
+      </c>
+      <c r="X35" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>332</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>333</v>
+      </c>
+      <c r="J36" t="s">
+        <v>334</v>
+      </c>
+      <c r="K36" t="s">
+        <v>335</v>
+      </c>
+      <c r="L36" t="s">
+        <v>336</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>337</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>338</v>
+      </c>
+      <c r="X36" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>342</v>
+      </c>
+      <c r="J37" t="s">
+        <v>343</v>
+      </c>
+      <c r="K37" t="s">
+        <v>344</v>
+      </c>
+      <c r="L37" t="s">
+        <v>345</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>346</v>
+      </c>
+      <c r="O37" t="s">
+        <v>99</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>347</v>
+      </c>
+      <c r="X37" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>350</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>351</v>
+      </c>
+      <c r="J38" t="s">
+        <v>352</v>
+      </c>
+      <c r="K38" t="s">
+        <v>353</v>
+      </c>
+      <c r="L38" t="s">
+        <v>354</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>355</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>357</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>358</v>
+      </c>
+      <c r="J39" t="s">
+        <v>359</v>
+      </c>
+      <c r="K39" t="s">
+        <v>360</v>
+      </c>
+      <c r="L39" t="s">
+        <v>361</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>362</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>363</v>
+      </c>
+      <c r="X39" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>366</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>367</v>
+      </c>
+      <c r="J40" t="s">
+        <v>368</v>
+      </c>
+      <c r="K40" t="s">
+        <v>369</v>
+      </c>
+      <c r="L40" t="s">
+        <v>370</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>362</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>372</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>373</v>
+      </c>
+      <c r="J41" t="s">
+        <v>374</v>
+      </c>
+      <c r="K41" t="s">
+        <v>375</v>
+      </c>
+      <c r="L41" t="s">
+        <v>376</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>355</v>
+      </c>
+      <c r="O41" t="s">
+        <v>81</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>377</v>
+      </c>
+      <c r="X41" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>381</v>
+      </c>
+      <c r="J42" t="s">
+        <v>382</v>
+      </c>
+      <c r="K42" t="s">
+        <v>383</v>
+      </c>
+      <c r="L42" t="s">
+        <v>384</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>385</v>
+      </c>
+      <c r="X42" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>393</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>394</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>395</v>
+      </c>
+      <c r="J44" t="s">
+        <v>396</v>
+      </c>
+      <c r="K44" t="s">
+        <v>397</v>
+      </c>
+      <c r="L44" t="s">
+        <v>398</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>399</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>400</v>
+      </c>
+      <c r="X44" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>403</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>404</v>
+      </c>
+      <c r="J45" t="s">
+        <v>405</v>
+      </c>
+      <c r="K45" t="s">
+        <v>406</v>
+      </c>
+      <c r="L45" t="s">
+        <v>407</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>408</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>409</v>
+      </c>
+      <c r="J46" t="s">
+        <v>410</v>
+      </c>
+      <c r="K46" t="s">
+        <v>411</v>
+      </c>
+      <c r="L46" t="s">
+        <v>412</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>413</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>414</v>
+      </c>
+      <c r="X46" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>417</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>418</v>
+      </c>
+      <c r="J47" t="s">
+        <v>419</v>
+      </c>
+      <c r="K47" t="s">
+        <v>420</v>
+      </c>
+      <c r="L47" t="s">
+        <v>421</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>422</v>
+      </c>
+      <c r="O47" t="s">
+        <v>81</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>423</v>
+      </c>
+      <c r="X47" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>426</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>427</v>
+      </c>
+      <c r="J48" t="s">
+        <v>428</v>
+      </c>
+      <c r="K48" t="s">
+        <v>429</v>
+      </c>
+      <c r="L48" t="s">
+        <v>430</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>431</v>
+      </c>
+      <c r="O48" t="s">
+        <v>258</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>432</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>433</v>
+      </c>
+      <c r="J49" t="s">
+        <v>434</v>
+      </c>
+      <c r="K49" t="s">
+        <v>435</v>
+      </c>
+      <c r="L49" t="s">
+        <v>436</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>431</v>
+      </c>
+      <c r="O49" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>437</v>
+      </c>
+      <c r="X49" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>440</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>441</v>
+      </c>
+      <c r="J50" t="s">
+        <v>442</v>
+      </c>
+      <c r="K50" t="s">
+        <v>443</v>
+      </c>
+      <c r="L50" t="s">
+        <v>444</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>445</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>446</v>
+      </c>
+      <c r="X50" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>449</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>450</v>
+      </c>
+      <c r="J51" t="s">
+        <v>451</v>
+      </c>
+      <c r="K51" t="s">
+        <v>452</v>
+      </c>
+      <c r="L51" t="s">
+        <v>453</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>413</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>454</v>
+      </c>
+      <c r="X51" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>458</v>
+      </c>
+      <c r="J52" t="s">
+        <v>459</v>
+      </c>
+      <c r="K52" t="s">
+        <v>460</v>
+      </c>
+      <c r="L52" t="s">
+        <v>461</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>462</v>
+      </c>
+      <c r="X52" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>465</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>466</v>
+      </c>
+      <c r="J53" t="s">
+        <v>467</v>
+      </c>
+      <c r="K53" t="s">
+        <v>468</v>
+      </c>
+      <c r="L53" t="s">
+        <v>469</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>470</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>471</v>
+      </c>
+      <c r="J54" t="s">
+        <v>467</v>
+      </c>
+      <c r="K54" t="s">
+        <v>472</v>
+      </c>
+      <c r="L54" t="s">
+        <v>473</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>445</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>474</v>
+      </c>
+      <c r="X54" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>477</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>478</v>
+      </c>
+      <c r="J55" t="s">
+        <v>479</v>
+      </c>
+      <c r="K55" t="s">
+        <v>480</v>
+      </c>
+      <c r="L55" t="s">
+        <v>481</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>482</v>
+      </c>
+      <c r="X55" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>485</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>486</v>
+      </c>
+      <c r="J56" t="s">
+        <v>487</v>
+      </c>
+      <c r="K56" t="s">
+        <v>488</v>
+      </c>
+      <c r="L56" t="s">
+        <v>489</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>490</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>491</v>
+      </c>
+      <c r="X56" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>494</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>495</v>
+      </c>
+      <c r="J57" t="s">
+        <v>496</v>
+      </c>
+      <c r="K57" t="s">
+        <v>497</v>
+      </c>
+      <c r="L57" t="s">
+        <v>498</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>490</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>499</v>
+      </c>
+      <c r="X57" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>502</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>503</v>
+      </c>
+      <c r="J58" t="s">
+        <v>504</v>
+      </c>
+      <c r="K58" t="s">
+        <v>505</v>
+      </c>
+      <c r="L58" t="s">
+        <v>506</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>507</v>
+      </c>
+      <c r="O58" t="s">
+        <v>258</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>499</v>
+      </c>
+      <c r="X58" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>509</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>510</v>
+      </c>
+      <c r="J59" t="s">
+        <v>511</v>
+      </c>
+      <c r="K59" t="s">
+        <v>512</v>
+      </c>
+      <c r="L59" t="s">
+        <v>513</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>514</v>
+      </c>
+      <c r="X59" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>517</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>518</v>
+      </c>
+      <c r="J60" t="s">
+        <v>511</v>
+      </c>
+      <c r="K60" t="s">
+        <v>519</v>
+      </c>
+      <c r="L60" t="s">
+        <v>520</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>521</v>
+      </c>
+      <c r="O60" t="s">
+        <v>258</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>514</v>
+      </c>
+      <c r="X60" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>523</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>524</v>
+      </c>
+      <c r="J61" t="s">
+        <v>525</v>
+      </c>
+      <c r="K61" t="s">
+        <v>526</v>
+      </c>
+      <c r="L61" t="s">
+        <v>527</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>528</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>529</v>
+      </c>
+      <c r="X61" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>532</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>533</v>
+      </c>
+      <c r="J62" t="s">
+        <v>534</v>
+      </c>
+      <c r="K62" t="s">
+        <v>535</v>
+      </c>
+      <c r="L62" t="s">
+        <v>536</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>537</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>538</v>
+      </c>
+      <c r="X62" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>541</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>542</v>
+      </c>
+      <c r="J63" t="s">
+        <v>543</v>
+      </c>
+      <c r="K63" t="s">
+        <v>544</v>
+      </c>
+      <c r="L63" t="s">
+        <v>545</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>538</v>
+      </c>
+      <c r="X63" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>547</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>548</v>
+      </c>
+      <c r="J64" t="s">
+        <v>549</v>
+      </c>
+      <c r="K64" t="s">
+        <v>550</v>
+      </c>
+      <c r="L64" t="s">
+        <v>551</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>552</v>
+      </c>
+      <c r="X64" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>555</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>556</v>
+      </c>
+      <c r="J65" t="s">
+        <v>557</v>
+      </c>
+      <c r="K65" t="s">
+        <v>558</v>
+      </c>
+      <c r="L65" t="s">
+        <v>559</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>560</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>561</v>
+      </c>
+      <c r="X65" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>564</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>565</v>
+      </c>
+      <c r="J66" t="s">
+        <v>566</v>
+      </c>
+      <c r="K66" t="s">
+        <v>567</v>
+      </c>
+      <c r="L66" t="s">
+        <v>568</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>569</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>570</v>
+      </c>
+      <c r="X66" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>573</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>574</v>
+      </c>
+      <c r="J67" t="s">
+        <v>566</v>
+      </c>
+      <c r="K67" t="s">
+        <v>575</v>
+      </c>
+      <c r="L67" t="s">
+        <v>576</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>560</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>577</v>
+      </c>
+      <c r="X67" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>580</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>581</v>
+      </c>
+      <c r="J68" t="s">
+        <v>582</v>
+      </c>
+      <c r="K68" t="s">
+        <v>583</v>
+      </c>
+      <c r="L68" t="s">
+        <v>584</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>585</v>
+      </c>
+      <c r="X68" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>588</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>589</v>
+      </c>
+      <c r="J69" t="s">
+        <v>590</v>
+      </c>
+      <c r="K69" t="s">
+        <v>591</v>
+      </c>
+      <c r="L69" t="s">
+        <v>592</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>593</v>
+      </c>
+      <c r="O69" t="s">
+        <v>81</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>594</v>
+      </c>
+      <c r="X69" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>597</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>598</v>
+      </c>
+      <c r="J70" t="s">
+        <v>599</v>
+      </c>
+      <c r="K70" t="s">
+        <v>600</v>
+      </c>
+      <c r="L70" t="s">
+        <v>601</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>602</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>594</v>
+      </c>
+      <c r="X70" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>604</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>605</v>
+      </c>
+      <c r="J71" t="s">
+        <v>606</v>
+      </c>
+      <c r="K71" t="s">
+        <v>607</v>
+      </c>
+      <c r="L71" t="s">
+        <v>608</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>609</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>610</v>
+      </c>
+      <c r="X71" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>613</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>614</v>
+      </c>
+      <c r="J72" t="s">
+        <v>606</v>
+      </c>
+      <c r="K72" t="s">
+        <v>615</v>
+      </c>
+      <c r="L72" t="s">
+        <v>616</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>617</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>610</v>
+      </c>
+      <c r="X72" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>619</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>620</v>
+      </c>
+      <c r="J73" t="s">
+        <v>621</v>
+      </c>
+      <c r="K73" t="s">
+        <v>622</v>
+      </c>
+      <c r="L73" t="s">
+        <v>623</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>624</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>625</v>
+      </c>
+      <c r="X73" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>628</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>629</v>
+      </c>
+      <c r="J74" t="s">
+        <v>630</v>
+      </c>
+      <c r="K74" t="s">
+        <v>631</v>
+      </c>
+      <c r="L74" t="s">
+        <v>632</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>633</v>
+      </c>
+      <c r="O74" t="s">
+        <v>99</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>634</v>
+      </c>
+      <c r="X74" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>637</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>638</v>
+      </c>
+      <c r="J75" t="s">
+        <v>630</v>
+      </c>
+      <c r="K75" t="s">
+        <v>639</v>
+      </c>
+      <c r="L75" t="s">
+        <v>640</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>521</v>
+      </c>
+      <c r="O75" t="s">
+        <v>258</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>634</v>
+      </c>
+      <c r="X75" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39698</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>642</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>643</v>
+      </c>
+      <c r="J76" t="s">
+        <v>644</v>
+      </c>
+      <c r="K76" t="s">
+        <v>645</v>
+      </c>
+      <c r="L76" t="s">
+        <v>646</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>634</v>
+      </c>
+      <c r="X76" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_265.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_265.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="723">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Deb F</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I was very disappointed in the quality of this place compared to the price that I paid.  It is quite old, and could use some updating.  The faucet dripped, the toilet paper roll wouldn't stay attached to the holder, the full kitchenette is EMPTY (you have to request plates, plasticware and other items specifically).  We arrived late at night, when I woke up, I wanted to make a cup of tea, but there wasn't anything in the cabinets!  I was shocked!!  Because of the faucet drip, the drain was quite rusted and looked nasty.  Due to the age, things just seemed dirty.  The wifi was out for at least 5 hours during our stay (I don't know actually how long it was out cuz we weren't in the room all day).  I opened the curtains for some light in the morning and was greeted by several people smoking.  The smoking area was right outside our window on the first floor.  Had to keep the curtains closed at all times, therefore the room was always dark.  There are plenty of other places within a block or two that looked much nicer.  Don't spend your money here!More</t>
   </si>
   <si>
+    <t>Jim D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r583177783-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Staff was friendly and responsive.  Room was spartan but clean and comfortable.   Top floor end room location was quiet, opposite side from the nearby freeway and businesses.  Older hotel but adequately maintained.Breakfast was minimal but CoCo's is next door.  Coffee was good.More</t>
   </si>
   <si>
+    <t>robmundyrm2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r560928261-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>The laundry dryers only work if toss 4 dollars of quarters in them for 1.5 hours. Washers are fine, 28 minutes. Rooms are clean and beds comfortable. Can get much better hotels just a couple miles away. Stayed 1 week and only because i had already paid up front. Here for a job and they charged double the price we now pay at a nicer hotel. Would not even consider this place in the future.More</t>
   </si>
   <si>
+    <t>Robert V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r546636598-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>Needs ice machines, carpet needs redone, doors have scratches, slow elevator, beds feel hard and a bit run down, the hallway had a very strong odor to it like food and the walls are a bit hollow where can hear your neighbor. More</t>
   </si>
   <si>
+    <t>Y3990TMcrystalb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r544150568-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Clean and comfy place near lots of restaurants and shopping. Beds are smaller than I expected, but nice anyhow. Staff is helpful and kind. Best to book directly with hotel as to not have any misunderstanding with pricing.More</t>
   </si>
   <si>
+    <t>K4488RQmichelled</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r541898405-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>My room wasn't very clean upon arrival and the hotel staff seemed annoyed when I asked to switch rooms. While the kitchen is nice to have it's older and heavily used. Online it said pets stay for free but there is a charge. It is nice and close to restaurants and grocery stores.More</t>
   </si>
   <si>
+    <t>Joseph R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r523854274-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>Serivice at the hotel is good and the staff is very attentive to your needs. The non-smoking rooms are great because I don't smoke and smoke tends to linger in areas where smokers have been. My only recommendations is that (1) for breakfast, they provide something a liitle more substantial for breakfast in the morning rather than muffins and breakfast bars; and (2) they offer more cable channels on the tv.More</t>
   </si>
   <si>
+    <t>theretirees60670</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r523602739-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -378,6 +402,9 @@
     <t>Latest visit. All the front desk people are most accommodating and pleasant especially Edna, Yasmine and Jessica. More staff to be at the front desk would be beneficial since there are times no one is there to monitor comings and goings. The property exterior needs better maintenance and security cameras in the parking areas would be appreciated. More</t>
   </si>
   <si>
+    <t>Mark S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r522047704-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>Needed a inexpensive place to stay to avoid a long commute for work. It was clean. Friendly front desk.  A good thing is it is next to a Cocos restaurant and across the streeet from a shopping center with many food options within a mile of hotel.More</t>
   </si>
   <si>
+    <t>Elizabeth G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r504453073-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>Great stay good area close to Magic Mountain Sixflags and drivable to Universal Studios Hollywood.  I washed clothes that was nice some places I've stay you didn't have to pay to use the washer/ dryer but there was a change for both and that's not including your detergent. I like that there was a working kitchen. Felt like a little home. Overall great stay! More</t>
   </si>
   <si>
+    <t>robertpI8364KI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r503022081-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -450,6 +483,9 @@
     <t>This Extended Stay was very nice the hotel staff was very pleasant and accommodating. The cleanliness and service was very good. In walking distance to grocery store and restaurants, the area is very nice and I felt very safe and this area. I never had to fight for a parking spot there was plenty of parking it is one of the quieter hotels that I've stayed at and quite some time I highly recommend this Extended StayMore</t>
   </si>
   <si>
+    <t>Arnold B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r501047535-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>Bring back fruit in the morning! Edna, Jessica and David are remarkable. They definitely understand the definition of customer service. Rooms are ok, hotel was ok with cleanliness but could be better.More</t>
   </si>
   <si>
+    <t>151jodim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r497828380-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>This place is awesome. Clean, comfortable, and friendly, and now 100% smoke free. The staff are super helpful, too. I chose this place because it is the only affordable option with a full kitchen, but I would stay here now regardless of whether I needed the kitchen.More</t>
   </si>
   <si>
+    <t>ceciliacV7433LX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r494732022-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>Would never stay here again. Room was not what I was told, No toiletries except one facial soap, one hand soap, and one little bottle of shampoo. Staff seamed like they were asleep, not clear at all or tried to go the extra mile for customers. I was very disappointed with my stay. Definitely not worth the rates.More</t>
   </si>
   <si>
+    <t>silviarW3255BU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r493274906-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -549,6 +594,9 @@
     <t>The room has a kitchen with an electric stove. Overall, the room was clean and practical like a single apartment, even though it felt somewhat out-dated. It was quiet and conveniently located near Walmart, freeways, and many restaurants.  More</t>
   </si>
   <si>
+    <t>Cy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r448665258-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -576,6 +624,9 @@
     <t>The room is clean, water pressure is good. The heating unit in this room exmits excessive amount of dusts into the room.  Free breakfast in this hotel is nothing more than a cup of coffee and a snack bar. No juices of any kind nor spring water are provided.  When I asked the clerk for a spring water instead of coffee she said I can buy it from the vending machine across the hallway. The compact parking spaces are very narrow.  Once you have parked your car you will have a tough time getting out of it.  Wifi does not work well in my room.  I will stay at a nearby hotel for the same price($99/night) and get free continental breakfast.More</t>
   </si>
   <si>
+    <t>Ashlan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r430559252-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -603,6 +654,9 @@
     <t>The hotel seems to be smaller and in need of upgrades, but overall they were kept clean &amp; the staff really stood out in my mind as being unusually sweet &amp; helpful. During the times they were at max capacity during the fire, they not only managed to keep breakfast full for everyone, but they left it out longer to make sure the families who had been affected by the fire would be able to get what they needed. They also did it for business guests some days. We really felt that they cared, &amp; went above and beyond for guests.More</t>
   </si>
   <si>
+    <t>brittanyhove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r419310089-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -630,6 +684,9 @@
     <t>If anyone needs a recommendation for a great hotel when going to six flags, this is the greatest place. Such excellent customer service since we have arrived! When we first arrived there was a mishap with our reservation and their system so they gave us a bottom level and took $70 off our original rates! Originally we would have paid $215 for two nights and ended up only paying $145! Such a clean and comfortable room. So thankful for nice people in this world! The only downside was our air conditioning did not work well but the front desk provided us with a fan to stay cool! Not only is the hotel great, it is in an awesome area with nearby stores and food places. Very family friendly, absolutely love it. Jessica is the sweetest!More</t>
   </si>
   <si>
+    <t>john8322016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r399394146-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -657,6 +714,9 @@
     <t>Filthy room, no tv remote, and broken toilet. Staff was very friendly, however. We cancelled the remainder of our reservation and moved to another hotel, and we did not have any problem doing that...again, very friendly people at the front desk.More</t>
   </si>
   <si>
+    <t>Bill C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r395915612-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -681,6 +741,9 @@
     <t>With Extended Stay Perks, this hotel is an even better value.  Staff is friendly.  If you are looking for a hotel close to Magic Mountain, this is it!!  Straight shot up The Old Road...never once had a problem with traffic.  Lots of food and stores in area.  Only downside are the pillows.More</t>
   </si>
   <si>
+    <t>nansmith07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r388456301-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -705,6 +768,9 @@
     <t>This hotel stay was significantly better priced than 2 neighboring hotels. The trade-off was a more minimal breakfast and no hair dryer in the room. The difference in price was well worth that. The room and hotel lobby were up-to-date and nicely furnished. My room was very quiet and service was very good.More</t>
   </si>
   <si>
+    <t>Lisa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r374305173-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -732,6 +798,9 @@
     <t>the room was just ok, there was no pool or hot tub. we were under the impression that there was both. very disappointed.  about that. the young girl at the desk was just a bit snarky for me. had to go to the front desk for a coffee maker and coffee and then cups. no silverware in the room or paper towels. i wouldnt stay there again. i should have stayed at the La Quinta inn.More</t>
   </si>
   <si>
+    <t>dachemist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r368275162-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -756,6 +825,9 @@
     <t>In this area there is a tourist magnet called "Magic Mountain" and it is not that far away. Also MANY restaurants, and other diverse shopping retailers are very close, BUT, the main draw is the VERY FRIENDLY staff.More</t>
   </si>
   <si>
+    <t>ScottBalanda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r357714103-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -774,6 +846,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>LindaLovesCoasters</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r312536800-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -804,6 +879,9 @@
     <t>I had ordered a non smoking room but the room we got smelled terribly of smoke. I went downstairs to check and was told it was a non-smoking room. I asked for a coffee pot and was given one to take to our room but when I got it upstairs I noticed the pot was dirty. It still had coffee in it from the previous guest.The rooms have a full kitchen but (understandably) there is NOTHING in it. If you were planning on staying for an "extended stay" you'd have to go down to get the dishes, flatware, pots, pans, cups, glasses, etc. I do understand that nere-do-wells steal the stuff so they can't just leave it in the room. But expect to have to load the kitchen if you plan to cook. Water pressure was great in the shower. Always a plus. but the Beds didnt look newly made. They appeared to have been slept in. As in sheets were loose/wrinkled as were the bedspreads. A/C was not working. It was blowing air, but not cold air. We had planned on asking for a different room the next night (they were sold out the night we arrived so we couldnt switch) but we were so exhausted from spending the day at 6-Flags we just decided 'to heck with it'. And showered and slept and left in the morning.More</t>
   </si>
   <si>
+    <t>Hellokitty H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r312146626-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -822,6 +900,9 @@
     <t>I stayed one  night with my children and boyfriend. My kids took off their shoes and had black socks within moments of walking in. The beds are old and the room reminded me of a retirement center. I'm glad we only booked one night! I am not a smoker and we asked for a non smoking room the hallways smelled like like smoke the smell lingered in my room when ever you went in and out. The brakefast is a few apples and muffins on a small desk by the entrance. Never again would I stay at this motel.More</t>
   </si>
   <si>
+    <t>dadunbar77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r307649007-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -840,6 +921,9 @@
     <t>Brought the family to visit Six Flags CA for the weekend and literally got just enough to get thru. We booked a room that sleeps 4-6 and called ahead of arrival just to verify that our suite included a sofa bed. We were assured that our room was all inclusive and would be ready upon check-in since we were expecting a late arrival. Upon arrival @ 8:27pm, we were given a room with a single queen bed and a lazy-boy chair that lived up to its name because it was too lazy to open correctly. When bringing the issue up to the front desk attendant, she told us that we had been upgraded from a standard room to a studio apt. suite. That would've been fine if that had actually been the case. What we were assigned was a room that was clearly designed for a single person to occupy. There were 2 in our party and four more coming in the morning. Realizing the 3rd party website made a mistake in our booking, Edna the front desk attendant, spent the next 87mins on the phone with the website tech support/customer service rep trying to get them to change the room assignment on their end so that she could reassign us to a premium King suite with a bedroom that would fully accommodate our party. Long story short...it took two days for us to finally be accommodated. Try making sleeping...Brought the family to visit Six Flags CA for the weekend and literally got just enough to get thru. We booked a room that sleeps 4-6 and called ahead of arrival just to verify that our suite included a sofa bed. We were assured that our room was all inclusive and would be ready upon check-in since we were expecting a late arrival. Upon arrival @ 8:27pm, we were given a room with a single queen bed and a lazy-boy chair that lived up to its name because it was too lazy to open correctly. When bringing the issue up to the front desk attendant, she told us that we had been upgraded from a standard room to a studio apt. suite. That would've been fine if that had actually been the case. What we were assigned was a room that was clearly designed for a single person to occupy. There were 2 in our party and four more coming in the morning. Realizing the 3rd party website made a mistake in our booking, Edna the front desk attendant, spent the next 87mins on the phone with the website tech support/customer service rep trying to get them to change the room assignment on their end so that she could reassign us to a premium King suite with a bedroom that would fully accommodate our party. Long story short...it took two days for us to finally be accommodated. Try making sleeping arrangements for 6 in a studio suite with one bed &amp; no sofa bed or rollaway bed. And breakfast was literally as advertised..."grab n go" with no juice or water, but plenty of chocolate muffins &amp; coffee. Definitely not a variety suitable for a family with children or a family period. Think morning coffee run in the average workforce office...lol. They advertise/offer full kitchens, however, you must request all dishes, utensils, appliances, towels, oven mitts from the front desk. Basically u have to ask for them to bring you the kitchen. All in all, if you're too tired to drive anywhere and need a place to crash in the vicinity and you're not traveling with anyone, then you might as well stop here.More</t>
   </si>
   <si>
+    <t>Jordan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r292224811-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -865,6 +949,9 @@
   </si>
   <si>
     <t>Room and facilities like the shower, fridge, and kitchen area were all clean. TV was a great size too. The area was nice although we didn't really explore it, it was a good location for the people that are looking for out of city hustle-and-bustle. It is 30 minutes from Hollywood and from Santa Monica Pier.The staff were friendly and when we called to ask about the reservation, we were thoroughly pleased with the service we received.More</t>
+  </si>
+  <si>
+    <t>Shannon G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r272863150-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
@@ -896,6 +983,9 @@
  At that time I asked if this room had a bath tub, I was informed yes, with a smile, and told, "they are small" Not a problem for me I'm a small woman. Ramon, was standing behind her, had helped her with the input of the discount. I ask for extra coffee...As our drive went shorter than normal called for an early ck in. Was informed we could but it would be a room with " two beds" as our room would "not" be ready for another 3 hour, (3pm)we accepted that. Upon arriving, it smelled badly, I thought possibly it was the cleaning solutions. While the process of checking is in progress we were informed it was two "double" beds. Asked if we could then have our original room and was told no, it was taken. This after being told that room would "not" be available until 3pm and we were now there at 2:39. I was not happy and expressed that if I were given the correct info on the bed sizes I would have kept my original room I had reserved. Carla the desk clerk gave me a $40.00 discount for the mix up and lack of communication. We truly appreciated that. She informs me that the 15% off of my stay will be deducted at "time of check out". This is because I am a first time guest and signed up for the rewards program. At that time I asked if this room had a bath tub, I was informed yes, with a smile, and told, "they are small" Not a problem for me I'm a small woman. Ramon, was standing behind her, had helped her with the input of the discount. I ask for extra coffee and am told, we must call down from our room to request the coffee and coffee maker. I actually clarified this since I was standing at the desk I was told to call and request the items.We realize the whole hotel smells bad, nasty. There is clean dishes in dish pans in the hallway in front of room doors, dirty towels, dirty dishes in hallway. Open our room and it is just shabby and smelly. I seriously would have left and found another hotel if I didn't already know they were booked for if not all or parts of our 3 day stay. We had brought some groceries thinking for at least the first night we could cook or warm up some food. I out the food in the smelly fridge, unpack a few things and head to the bath. I tune on water and notice there is no plug in the tub. Ok, I call the desk and request the coffee maker, some extra coffee and a plug. Ramon ( the man behind Carla during our check in and my question about the tubs) tells me " we don't have plugs" I was taken aback a little bit, my reflex response was, you have tubs and no plugs and I ask Carla specifically about a tub in my room and you have no plugs. he said he would ask maintenance. Two and a half hours later he comes with the coffee maker, coffee tells my husband he didn't find a plug and will ask maintenance tomorrow. I was already in using a washcloth stuffed in the drain I managed. We would have also liked to open a window as it was so stuffy and the musty nasty smell in the room was a bit much. One window had in place of a screen another glass and would not open, the other window had a screen but would not stay open when lifted, We placed a soda can under it to hold the window open.  After a day of family visits we come back to our room on Friday and notice in the windows people had hung their laundry to dry. The walls are super thin, the plumber in the hallway with a snake was not a pleasant site and helped the anticipation of a decent stay none at all. Each day there were dishes, dirty laundry in the hallways. We came back to the hotel after room maintenance was done, and the kitchen set-ups were clean, left on the floor clean towels left on the nasty hallway floor that thousands of steps have been on that carpet. Saturday night a party was in the room next door (208) all night long knocks on the door, loud conversation, television. I was going to my bag looking for my earplugs, lose my footing and fall into the wall with my palms up. I hear from that room, someone's knocking on the wall we're to loud, grow up! This went on all night long, loud enough that the wax earplugs were useless. I chose not to knock on the door, nor request another room. The number of people in that room and the traffic in and out made my choice not to confront strangers in a hotel out of town. I made a call to the desk and told they were aware and it was being handled. The fact that it never ended, I saw how it was being handled.At 3:30 am I decide to shower and leave. We are checking out and find out that not only was the room fee put through for payment the day before but that also the 15% was "Not" applied to the total amount. I also tell the person I called to in the laundry room who is doing the check out in jeans and a t shirt that I was disturbed the whole night by the party in the room next door and was about to ask about my complaint. She tells me" yes we called the sheriff two times but they couldn't do anything because they weren't doing drugs. I asked about the 15% discount was told that it had been applied, I had to explain no that amount taken off was for the mis communication. She told me that Carla left no notations and that I had to "wait" to talk to Carla. I reminded her we were checking out, she points to a sign and says that's why we want you to check out after 7am??? I told her I can't do that and she shrugged, I had a 7 hour drive home, I'll call Carla after 8am, when Carla would be in. When I call Carla I am informed that she sent me an email informing me that the discount would be applied to my card in 3 to 5 business days. The room was charged to my card on the 16th, not  upon check out,our check out was the 17th. To say it was an very unpleasant experience, is an understatement. To say I would sleep in my car if this was the only hotel to have accommodations available is the absolute truth of the matter. My husband and I stay in this area on a minimum of 5 times a year. It is sad that the hotel would allow and maintain this hotel to this sub level and have clients as myself to not recommend and to stay away from the Extended Stay hotels, I am making the judgment based on this one hotel because I won't allow myself  the possible chance of another experience as this, and one that I pay for.To the person who defended the hotel by saying we who choose to stay and not understand the "concept" of extended stay, I will tell you. I have traveled extensively, have stayed in many "extended stay" types of hotels, don't look for some one to clean up after me like my momma did I say. I learned early on to clean up after myself. I understand and make the choice when needed. I do expect a little more than slum like conditions, informed staff, and at least in common areas, clean, not smelly and trash in receptacles. I have traveled to this area now for 25yrs since moving to nor cal and I have stayed in many different accommodations. I understand the need and have wanted the convenience of having what this type offers. But, I am still paying for it, I still expect and should expect it to be clean, the staff to be accommodating and walk into a room this sub level as described above and even more I did not include is unacceptable.More</t>
   </si>
   <si>
+    <t>haykingbrown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r272272562-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -909,6 +999,9 @@
   </si>
   <si>
     <t>We checked in and found out that hotwire had booked us in a smoking room. I'm pretty sure his name was Bryan.. but he was so nice. I did t even have to ask and he changed us, no problem.  We had a quiet stay, slept I. So didn't get coffee, but they were gracious in giving us a late check out which I appreciate. I have stayed in extended stays a lot. But this has to be the best one by far!</t>
+  </si>
+  <si>
+    <t>Dwayne H</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r266160347-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
@@ -966,6 +1059,9 @@
 -There’s no...I start my review with the caveat that I my 2.5mo at Extended Stay came right after I spent 3mo in the Residence Inn right around the corner. I changed locations since at the time the Extended Stay rate was ~30% cheaper. I would say that you get what you pay for, but for the 30% cheaper I expected that the general services would go down ~30%. Instead the services went down ~80% and the quality went down ~50%. To see where Residence Inn shined you can search for my review on them.Here are the basicsPROS-Friendly staff-Good location - Although technically in Stevenson Ranch not Valencia-Decent rates-Good size rooms-Weekly cleaning service-Morning Snacks-Are pet friendly (I didn’t have a pet with me, but the few dogs I saw were well behaved.)CONS-Weird smells in halls-Very slow base internet (I rated it at 0.81 Mps download in my room). The paid $20 expanded internet was better, but still bad at ~3 Mps. The additional charge is also required for each device that you want the expanded service on (Although it doesn’t actually state it when you make the purchase or in the terms of service. I only found out after I tried to add additional devices.).-Poor sound insulation. At least in my wing, some of the residents were pretty rowdy, in their rooms, in the hall, and outside. -There’s no dishwasher and the sink is small. Technically large enough to clean a pan, but just barely, and you end up with a fair bit of water on the surrounding countertop.-My unit had:--Perpetually leaking shower. I had the maintenance person come fix it shortly after I moved in. It didn’t leak for a few days until the cleaning person came. After that I could never get it all the way off.--No cover/stopper in bathroom sink, so you had to be careful about small objects near the sink.--Cracked/chipped outlet covers (not a big deal, but they’re less than $2 to replace)--Countertop surfaces that were in need of replacement.  (They had been damaged and poorly repaired.)--My refrigerator leaked all over the floor for the first 3 weeks. I spoke to the staff a few times about getting it fixed over that timeframe. In the end, one of the managers actually went and got a spare fridge and brought it up to my room. I appreciate that she did that service, but it sucks that the maintenance person hadn’t done it a couple weeks prior. Especially since the only reason that they didn’t get expensive water damage was because I kept the water at bay using traps and towels.More</t>
   </si>
   <si>
+    <t>114557</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r259805299-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -990,6 +1086,9 @@
     <t>Spring break, a time to relax and make memories with friends. That's what I thought was gonna happen, until I decided to book 3 nights at this trashy hotel. Right of the bat, there is no room service and promises are broken. The front desk is supposed to provide pots and pans to cook with, but when we asked they were out. So later that night we found one in the hallway from a neighboring room. This is only one of the several problems we faced during our few nights there. We discovered that our trash would not be taken out, and had to leave the bags in the hallway. The sheets from the bed would slip off in the middle of the night, revealing the yellow stained mattress. They didn't provide hand soap, the handle to the bathroom door came of twice, and there were pears left in the fridge from a previous visitor.  Not only does this place not have the expected luxuries of most hotels that charge over $100 a night, but there were inconveniences left and right. My favorite part about staying at this hotel was a spider crawling on my arm while I was relaxing the last morning of my stay. Probably one of the worst hotels I've been to and made the beginning of my spring break hard to enjoy.     More</t>
   </si>
   <si>
+    <t>Raymond G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r258459902-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1017,6 +1116,9 @@
     <t>We stayed here in a last minute decision with no vacancy in nearby hotels. The room was clean, bathroom was clean, nice large room with small kitchen area. Wasn't too impressed with small breakfast selectionMore</t>
   </si>
   <si>
+    <t>chrissnelson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r246833149-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1044,6 +1146,9 @@
     <t>We checked in around 9pm, which is the time I listed on the online reservation, and got to my room to find a kitchenette with no dishes of any kind.  I needed to take some medication and there were no glasses/cups anywhere in the room.  I had requested a ground room floor as my husband is handicapped.  All were gone and the elevator was broken.  I did mention this in my reservation request.  Paid $115 and did not feel like it was worth it.  Will not return or recommend to anyone.More</t>
   </si>
   <si>
+    <t>S A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r246709192-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1071,6 +1176,9 @@
     <t>Hotel is very run down and in need of updating.  Elevator was broken and had to walk up 3 flights of stairs.   No rooms were ready when we arrived at 5:00 pm.   Hallway smelled of smoke.  Bathroom faucet leaked.  Abandoned car with smashed window in parking lot just outside of lobby.  Not worth the price.   Spend just $20 more and stay down the street at Comfort Suites.More</t>
   </si>
   <si>
+    <t>Nelson F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r229352908-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1098,6 +1206,9 @@
     <t>Will NOT visit this place no more. Not a good place to recommend to friends for short vacation. You need to put a breakfast ROOM and not the go N get kind of food service. I found a stain in my bed sheet and it looks like a **** dried and gross!!   More</t>
   </si>
   <si>
+    <t>AndreasTravel2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r213179418-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1119,6 +1230,9 @@
     <t>After staying at the Extended Stay for nearly 2 months I observed a lot of pros and cons.PROS:* Great location* Affordable* Pet friendly (pet owners pick up after your pets you lazy F***s! - you mess it up for responsible dog owners!!!)* Laundry on siteCONS:* No frills hotel* The staff work really hard to accommodate an incredibly high volume of guests with little to no * support from their corporate offices.* The have a couple really good cleaning ladies who I've seen work their butts off only to be treated poorly by their superiors.* The Manager that was there when I was there was very kind and accommodating to me but I could see how people would think she was rude.  The only comment I have is again, I don't see any support from their corporate offices which makes it nearly impossible to improve poor working conditions which result in these bad reviews.More</t>
   </si>
   <si>
+    <t>Stharish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r212722607-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1146,6 +1260,9 @@
     <t>Latest reviews of this hotel are 100% accurate. The entire third floor reeks of cigarette smoke - to the point I had to hold my breathe walking down the halls. Garbage in the kitchen area of the room was completely full of food and beer bottles left over from the previous guests. Coffee maker had a used coffee packet inside - also from the previous guests. Shower faucet leaked all day and night. If the cleaning staff isn't paying enough attention to take out the trash I can only image what else isn't being cleaned. Will never stay here again. More</t>
   </si>
   <si>
+    <t>J A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r211408984-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1162,6 +1279,9 @@
   </si>
   <si>
     <t>I came to CA for my brother's wedding along with my parents, sister and nephew from AZ and the bride's mother and 3 grandsons from TX - a total of five rooms were booked.  We knew that our expectation of a nice hotel in Valencia was inaccurate when we pulled up and saw the dead landscaping, and dog urine stains at the front entrance of the lobby. The front desk attendants were nice but it was obvious that one of them was new and being trained as we checked in at the dirty front desk.  I got more concerned when I saw  trash in the hallways and smelled the odor in the halls on my way to the first room they gave me, which smelled of fish odor!  The next room was next door to a noisy family and the room that I ended up staying in had hair on the bed blanket, stains on the bed spread, stains on the floor, hair in the bath sink, hair in the shower, hair on the floor of the bathroom and black spots on the ceiling of the bathroom, which had no exhaust fan. The bathroom and refrigerator did not look clean and the water fixtures where rusty and old.  My parents and friends rooms were also worn out with stains on counter tops, hair on blankets and a used washcloth in one of the bathrooms.  I called the District manager within...I came to CA for my brother's wedding along with my parents, sister and nephew from AZ and the bride's mother and 3 grandsons from TX - a total of five rooms were booked.  We knew that our expectation of a nice hotel in Valencia was inaccurate when we pulled up and saw the dead landscaping, and dog urine stains at the front entrance of the lobby. The front desk attendants were nice but it was obvious that one of them was new and being trained as we checked in at the dirty front desk.  I got more concerned when I saw  trash in the hallways and smelled the odor in the halls on my way to the first room they gave me, which smelled of fish odor!  The next room was next door to a noisy family and the room that I ended up staying in had hair on the bed blanket, stains on the bed spread, stains on the floor, hair in the bath sink, hair in the shower, hair on the floor of the bathroom and black spots on the ceiling of the bathroom, which had no exhaust fan. The bathroom and refrigerator did not look clean and the water fixtures where rusty and old.  My parents and friends rooms were also worn out with stains on counter tops, hair on blankets and a used washcloth in one of the bathrooms.  I called the District manager within an hour of our arrival and explained the condition of the rooms, that we were here for a wedding and asked what they could do for us.  She offered an apology and said that we could check out in the AM. That was it!   I called other hotels in the area and looked on line but everything was out of our budgets and we didn't have time to change hotels since the wedding was Saturday - we felt trapped there!!  When my sister and nephew arrived late in the PM, her room had alcohol, open bacon, milk and a plate of fried food in the unclean refrigerator, stains  on the bedding, floor, bath room counter, dripping shower faucet, broken lamp, window curtains hanging by one screw, chewed gum on the wall and WET beds! I had to help her strip her bed at 11 PM and change her bedding which still stayed damp all night!  I called Extended Stay America's guest services Sat. AM, they documented all of this and said the director of operations would call me.  He NEVER did.  I've called back after my trip.  They are NOT returning calls and have made no effort to compensate us for the terrible experience we had at this place. This was so upsetting and almost ruined the trip for my brother's wedding!  The attendants working there were nice and sympathedic to us but they said that they get no help from the management to improve anything.  This place is a mess and nobody at Extended Stay America seems to care or want to do anything about it!  DO NOT STAY HERE!!  Me and my large extended family will NEVER stay at an Extended Stay America property again!  This company cares nothing for their guests and they do not care about their reputation! We are telling everyone we know to STAY AWAY from Extended Stay America!!!More</t>
+  </si>
+  <si>
+    <t>izakmedia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r203120836-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
@@ -1194,6 +1314,9 @@
 Oh, and at one...When we arrived to the hotel at 3pm, the front desk attendant was "brand new" as the Manager explained to us and then left, leaving us with the new front desk attendant to fill out necessary paperwork for us to check-in. The process was slow. Very s-lo-w and I couldn't believe the Manager would just leave her attendant like that in front of guests. You could tell the front desk attendant was nervous and anxious. So after a good 10 minutes, we were then told we needed to wait another 10 minutes before we could check-in. I asked if there was another room we could have since I was on a time crunch for a wedding rehearsal in town, she said no, but that we needed to wait since we were a little early. My BF then asked what time check-in was, she said 3pm, and we looked at our phones. It was 3:15. She then apologized and said, "Oh! It's 3:15? I need to get going too," and that was it. We were stuck waiting.When we were finally given the green light to go to our room, the cleaning lady was still there. She needed to mop and wash the towels and dishes. At that point, we needed to start getting ready for our appointment so we, my BF and I, and the maid all were in the room trying to get things done. Oh, and at one point, the Manager and her attendant locked themselves out of the hotel one afternoon. My BF had to let them in with his hotel key.Complete idiots. Hallwags were so dirty that it looks like they haven't vacuumed in weeks. One bar of soap in hotel room's restroom - no shampoo, no conditioner. No pad of paper and pens - I thought this was an extended stay hotel? BF asked the front desk if he could get some paper and pens - they said they don't do paper, but did hand him a pen. Coffee maker was broken. They don't acknowledge you at the front desk when you walk in or walk out of the hotel. Simply the worse experience ever. Exended Stays typically have an okay reputation, but this one, by far has really let go their quality control.Spend your money at the Hampton Inn right down the street. Better breakfast, service, and rooms. Seriously!More</t>
   </si>
   <si>
+    <t>David G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r202864240-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1218,6 +1341,9 @@
     <t>Would not recommend to my friends and I would not stay there again myself.  There was no discount applied to my bill even though one was promised and the room I booked was not available. The garbage in the kitchen was full at check in and they were rude during check out.More</t>
   </si>
   <si>
+    <t>Rhonda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r199876860-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1236,6 +1362,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Sam T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r187365335-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1263,6 +1392,9 @@
     <t>The staff is wonderful there. Jin was a star in my book and was always helpful and willing to go above and beyond. The rest of the staff is great too. My stay was centered around business so I scouted out a location prior to making reservations. Although some of the reviews i read made me wonder, my misgivings quickly dissolved when I spoke to Jaquie the GM. She is guest and service driven and goes out of her way to accommodate guests at her hotel. I stayed at this hotel for almost a month on off during the month of October. The rooms were clean. The kitchen was fine and the beds were comfortable. I only had one issue with smokers in the hotel but the issue was resolved by speaking to the staff. A lot of reviews comment that this is an issue. It was for me as well but making the staff aware that I had an issue is what got it resolved for me and from there my stay was overall a very good experience! The location around the hotel is very convenient for shopping and for dining. Also close to the interstate 5 as well. I recommend this hotel for a great stay.More</t>
   </si>
   <si>
+    <t>DwayneLT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r185710242-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1278,6 +1410,9 @@
     <t>Had trouble getting a room that did not smell like an ashtray. Broken furnishings. Dirty dishes in kitchen. Missing towels. Poor communication between personnel that were trying to help me. Generally unimpressed with this place. Parking spaces are super narrow. I have two new door dings thanks to that and a lack of consideration from other people. I doubt I would ever consider staying in an Extended Stay America hotel again.</t>
   </si>
   <si>
+    <t>d l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r183589529-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1305,6 +1440,9 @@
     <t>I almost forgot to review this place. Got a good deal on PL for a quick night stay. A little worried that it was a one star, but for one night it was fine. Decent room and had a kitchenette, though I went out to eat of course. I like the location as it was across the street from shopping and a gym that I belonged to.The breakfast was MEH...if you're used to Hilton hotels like Hampton and Embassy, the miniscule bars were disappointing. However, for the price it ain't bad.More</t>
   </si>
   <si>
+    <t>Tracy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r177682181-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1332,6 +1470,9 @@
     <t>The staff were extremely helpful and courteous. Whatever we needed to make our stay comfortable they were on it! The rooms/bathrooms/kitchenette and carpeting could use some updating. Otherwise, a comfortable stay next to an amazing restaurant, Coco's. The best breakfast ever just a few feet from the hotel. Thanks to the staff at ESA! We appreciated you through our stay!  :-)More</t>
   </si>
   <si>
+    <t>DinoSoke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r175595425-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1348,6 +1489,9 @@
   </si>
   <si>
     <t>August 2013</t>
+  </si>
+  <si>
+    <t>CAHeadHunter</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r173583229-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
@@ -1382,6 +1526,9 @@
 Overall this is a great property and...I chose the Extended Stay America because of its proximity to the Grapevine.  My husband and I were traveling south from Northern California on a business trip with our cargo trailer and needed a hotel that 1) was in the L.A. Basin, but not to far, timewise, from the Grapevine, 2) had enough parking to accommodate our truck and trailer, 3) was economical.  This hotel met all three qualifications nicely.  The property was clean with a Coco's restaurant that shares the same parking lot.  Although I was not traveling alone on this trip, I would have felt perfectly comfortable staying there as a single female traveler.  There was sufficient parking for several larger vehicles or vehicles with trailers, but we arrived a bit later than expected--just before 9pm--and found one of the last multiple-space spots available.  I would plan to arrive a bit earlier in the evening if space for your vehicle is a concern since other travelers with larger vehicles obviously had our same idea.The room was well appointed and well lit.  My only complaint was that we found the bed a bit firm, but that's an issue that is a personal one and certainly wouldn't keep us from staying there again.Although we had brought our own food to take advantage of the kitchen, I appreciated the 'grab and go' goodies in the foyer, including coffee, fruit, and granola bars.Overall this is a great property and one that we will add to our hotel choices for our North-South trips.More</t>
   </si>
   <si>
+    <t>ste51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r168826153-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1409,6 +1556,9 @@
     <t>we found the staff at the hotel to be very helpful and pleasant and the hotel is in a great location for visiting 6 flags theme park which is where we were going.check in and out was flawless. the rooms were a reasonable standard and my only complaint was we found the air conditioning unit nosier than normalMore</t>
   </si>
   <si>
+    <t>CookieB7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r168454772-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1433,6 +1583,9 @@
     <t>My nephew and I stayed here on July 15th-17th so that we would have easy access to Six Flags Magic Mountain during our visit.  The staff was phenomenal.  Jacqui and Ahlysa (I may not be remembering her name correctly), did everything to make our stay pleasant.  They have fabulous, friendly personalities.  We were fortunate to have our room upgraded to a suite, so we were able to cook dinner in our room.  We had a full fridge, microwave, sink, and dinner dishes, so we were exceptionally comfortable in our spacious room.  The Coco's Restaurant next door had some very nice meals.  It was just a short walk to brunch.  The weather was beautiful while we visited and the people were all so helpful.  I would definitely book this hotel again.More</t>
   </si>
   <si>
+    <t>Rosie Alba</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r168346016-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1457,6 +1610,9 @@
     <t>Showed up an hour and a half after check in and was told my room still was not ready.... They said it would be ready in 10 minutes... Ten minutes went by and they ask if I was waiting for my room... I said yes I'm still waiting to be checked in... They then told me fifteen more minutes!!!  My daughter had to use the restroom so bad she was gonna pee herself... She ended up using the employee bathroom after climbing over all the bags of laundry in the laundry room! I ask if they could at least discount the room and they said no ma'am not at all... worst check in ever!More</t>
   </si>
   <si>
+    <t>jgtgrant</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r166236596-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1472,6 +1628,9 @@
     <t>I was absolutly blown away with discust when I walked in the room to find a kitchen sink filled with backed up water...... hallways smelled, toilet kept bubbling water all night. I would not recommend this facility to Anyone.....       room #217</t>
   </si>
   <si>
+    <t>Nadia T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r166222224-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1493,6 +1652,9 @@
     <t>The hotel smells like smoke. The room was dirty and the floor was sticky. I got a good deal through Priceline....when I checked in the clerk gave us a room with one queen bed. I asked him if he could gives us another room with 2 queen beds since I was traveling with my husband and my daughter. The clerk told us that he did not have any rooms available. It was around 4:00pm..... So I checked online and they did have rooms with 2 queen beds....LIARS.... Please spend more money and go to a better hotel. That's what I did.....More</t>
   </si>
   <si>
+    <t>Lois S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r165927280-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1517,6 +1679,9 @@
     <t>Will make this hotel our home away from home. We were really happy with the room and amenities. We come to the valley often and will stay at this hotel from now on. We were happy to be able to bring our dog and that was most important. And we enjoyed everything.We don't use the pool and gym so we didn't miss it.  We also liked the location so close to everything.More</t>
   </si>
   <si>
+    <t>walkertechie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r161941752-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1544,6 +1709,9 @@
     <t>Just spent a couple days at this hotel and I must say it fit the bill for our needs. Sure it is not a perfect property, no pool, ho-hum continental breakfast, no exercise room, etc. But it was very affordable considering this is the Labor Day weekend and most other hotels were fully book and charging high prices. What is lacked in amenities, it make up with good service, clean rooms and being close to Magic Mountain. The rooms were big and had fridge, cooktop and microwave. For those traveling with families this can be a real bonus money saver if you don't mind cooking. Another bonus for dog lovers is they have a secluded dog walk out back as well. Our stay was quiet and no disturbances from the usual running kids. Not even a peep from neighbors. It's a short drive away from Magic Mountain, so you can get your hand stamped for re-entry, drive back for a homey meal, and go back to the park easily. Sure beats the ridiculous prices Six Flags charges for food.. I was equally happy with the very fast check-in by John at the front desk. All staff were helpful and courteous, which is what I prefer most over star amenities. So next time you want a clean, affordable and function place to stay in town, please give them a try.More</t>
   </si>
   <si>
+    <t>andrea o</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r161441539-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1568,6 +1736,9 @@
     <t>With its great location and flexability for a night to night basis I was excited to stay. Once inside the room, the floor was soaking, I mean soaking wet I assume from cleaning but there was so much water that I slipped and fell on the laminet floor in the connecting kitchen. Having a crawling baby, we were confined to the bed for his crawls and he sneezed all night, I beleive due to the musty wet room. The front desk was less than helpful. I was hoping to address this matter and I stood at the front for about 30 min while he tended to the staff break room and ran by me to grab the phone and talk for 20 minutes. When I approched him he was short and running around. Check out took 30 minutes as well as he was not at the desk and not until my baby cried did he come out to help.I went to the hotel down the street and I could not get out fast enough. I stayed with them for a week.More</t>
   </si>
   <si>
+    <t>Rach D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r159732800-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1589,6 +1760,9 @@
     <t>A friend and I were on our way from San Francisco to Indio and needed a place to sleep for just 1 night. The location is ideal. Just north of the hustle and bustle of LA, but next to the I-5 to make a quick getaway. Also, there are shops right across the road. The room was clean. The kitchen is very handy. Bathroom spacious. Big, comfy bed. Accommodating staff. Couldn't ask for more really. My only issue is the utilitarian feel of the room and surrounds. There isn't a homey feel about the place, but I suppose some people would like that.More</t>
   </si>
   <si>
+    <t>Karad1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r156165652-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1613,6 +1787,9 @@
     <t>The room was large and spacey, the bed was uncomfortable but I can't complain too much when we got the room for 60$ a night. The biggest problem I had was the management waking us up at 12 am because they forgot we had checked in and put us in our room, mistakes happen I know but they handled it very unprofessionally. Also the continental breakfast was old apple and oranges and fruit bar. More</t>
   </si>
   <si>
+    <t>Pajaree W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r156128125-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1631,6 +1808,9 @@
     <t>I stayed here for 2 and a half months. It's okay though the price was a bit high. The room quality was good. The furniture were well-furnished. The bus stop was right in front of the hotel so it's very convenient. There are many store and good restaurants near the hotel. Plus, the the staff were nice and helpful.More</t>
   </si>
   <si>
+    <t>Erica E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r155358705-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1658,6 +1838,9 @@
     <t>I was in between housing situations and had to stay at the hotel for 1 month. I loved it. As a single mother of two, money is always an issue so having the convienence of my own kitchen, I was able to save money by preparing home cooked meals for my daughters. The staff was very friendly and accomodating, and the room was very comfortable. I really enjoyed my stay here and would recommend it to anyone.More</t>
   </si>
   <si>
+    <t>rick h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r153972072-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1685,6 +1868,9 @@
     <t>I would highly recommend  this extended stay to everyone!!!  The manager Anthony is so friendly and accomadating. Also Jaquie at the front desk is so nice and helpful always. Also at the front desk is John and he is always friendly and helpful too. The rooms are very, very clean and the cleaning staff does an excellent job as well! I was very pleased with my 40 day stay here!!!More</t>
   </si>
   <si>
+    <t>sylvieramos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r153346663-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1703,6 +1889,9 @@
     <t>I came back to Santa Clarita on business again and stayed at the extended stay Valencia again. Once again Jaquie at the front desk was very friendly and helpful. The manager there Anthony even came over and welcomed me back. My room was very clean and I even saved money on being able to cook and eat in. It was nice to be able to go strait back to my room instead of a crowded restaurant. I have no doubt I will stay there on my next business trip also.More</t>
   </si>
   <si>
+    <t>msPotatoeHead</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r152230831-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1727,6 +1916,9 @@
     <t>The Extended Stay is a wonderful and family friendly hotel that makes you feel right at home. From the beautiful view to the extremely helpful and delightful workers, my stay was magnificant. I could'nt imagine staying at any other hotel after staying here. I love the Extended Stay, because its so clean and comfortable and overall great. I would recommend it to anyone who is looking for some place thats affordable yet luxorious.More</t>
   </si>
   <si>
+    <t>jin662</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r151666493-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1754,6 +1946,9 @@
     <t>Stayed here recently whole visiting family and will definitely be back! Price was great, amenities were awesome and jaquie at the desk was so helpful with everything.  I really don't see us staying anywhere else when in town.More</t>
   </si>
   <si>
+    <t>Debbie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r150540193-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1781,6 +1976,9 @@
     <t>I stayed at this site for three months.  The staff was very friendly.  They made me feel very welcome and homey.  Being away from home during the holidays are rough but when you have staff such as these guys, it made my stay and holidays much more pleasant.  I would definitely recommend and stay at this location again.More</t>
   </si>
   <si>
+    <t>michelle g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r150510703-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1802,6 +2000,9 @@
     <t>This hotel is amazing, neither me nor my family want to go home! we are staying here due to some remodeling that is going on in our home, and honestly i can say that this is like a second home to us. Everything is within walking distance, from delicious restaurants to fast food, to places to shop at. The service is amazing and the staff is very helpful and pleasant, Jackie is the sweetest and she will answer all your questions to the best of her knowledge!!The grab and go breakfast is very tasty which is a plus! If you are looking for a hotel to stay at this is the place to go!!!More</t>
   </si>
   <si>
+    <t>Kmnana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r143308557-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1826,6 +2027,9 @@
     <t>Great service, with safe and clean surroundings, In walking distants to shopping and food. With indoorlaundry area a most when your on the road. Also a fantastic Grab an Go Breakfast. A gratkichenarea for cooking in.Will diffantantlyreturn for another stay.More</t>
   </si>
   <si>
+    <t>Asuka O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r137295395-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1853,6 +2057,9 @@
     <t>staffs in front desk are really really nice. i think they are one of the best in my experience. but... room was dirty and smells. i found a cupcake on the shelf when i checked in. not welcome snack, somebody's leftovers....More</t>
   </si>
   <si>
+    <t>Glenn R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r137227164-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1872,6 +2079,9 @@
   </si>
   <si>
     <t>I have travelled on company business 4-nights per week for the last three years staying at nearly every hotel/ motel chain in the U.S. including many other Extended Stays. I don't cut costs but do look for value. This property is "heads and shoulders" above the normal places I have stayed. Exceptionally clean and fresh! The location near great restaurants, fast foodand shopping is perfect. Although I don't take my dog on business trips this property is pet friendly and I enjoy seeing this special accomodation for our 4-legged friends. But best of all, Jaquie at the desk is the most pleasant, helpful and resopnsive receptionist I've come across.....ever!!!.More</t>
+  </si>
+  <si>
+    <t>DMK1177</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r135186510-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
@@ -1903,6 +2113,9 @@
 Another issue I had with housekeeping is that the desk clerk on duty at the time could tell me what the charge would be for someone staying less than 2 weeks? So I had to come back down to the front later in the evening and request to speak to someone that knew what to charge me for 3 days of room cleaning services! The last thing that really was made me angry was, a week after the stay, I was reviewing my bank statement and discovered that they charged me again for $9.00 after charging me up front for housekeeping services? What poor customer service! Never again will...In the last week of June 2012. My family and I were in the Santa Clarita California visiting family. My wife found this hotel on hotels.com. The Extended Stay hotel in Stevenson Ranch which is a community of Santa Clarita. The hotel advertises themselves as a vacation &amp; weekend stay hotel as well as for short &amp; long term stay.  The room rate was about the same as some the other hotels in the area. However, they do not tell you up front is that if you stay less than 2 weeks they do not provide housekeeping services, unless you pay addition $6.00 -$7.00 a day! At that price it is basically making the beds, taking out the trash, and giving you clean towels! Very little cleaning that the maid does.  Another issue I had with housekeeping is that the desk clerk on duty at the time could tell me what the charge would be for someone staying less than 2 weeks? So I had to come back down to the front later in the evening and request to speak to someone that knew what to charge me for 3 days of room cleaning services! The last thing that really was made me angry was, a week after the stay, I was reviewing my bank statement and discovered that they charged me again for $9.00 after charging me up front for housekeeping services? What poor customer service! Never again will I stay at this hotel nor would ever recommend it to anyone!Additional complains were:- Dust &amp; lint balls under the beds and behind the dresser- The windows had dirt build up along the window seal.  - The center bed frame support had came loose and fallen down.- The Shower curtain allow water to spray onto the bathroom floor- The hallway on the 2rd floor had a strong musty smell. (it smell similar to dirty laundry)  - The rubber non-slip flooring  in the back exiting  stairway leading to the parking lot had a strong chemical / musty smell the entire time we were there at hotel- One of the beds in the room had a mattress protector that had stains.For the same price we would have been better off staying down the street at the Hyatt or Marriott and would have gotten full service house cleaning services as well as a cleaner room.  I do not recommend the Extended Stay hotel in Stevenson ranch in Santa Clarita Ca. if you are staying for a couple days or just for the weekend.More</t>
   </si>
   <si>
+    <t>dk2227</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r135152011-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1919,6 +2132,9 @@
   </si>
   <si>
     <t>Aside from the staff, who were excellent, this hotel is nowhere near the quality you should receive for the price charged.The place seems to be falling apart (the sink and drains are rusted out; the walls have big holes/cracks in them; and the furniture is stained, chipped and worn).  The kitchenette, which was a selling point for us, is under stocked (only two plates and two of each of the utensils) and kinda gross (greasy, not clean).The worst part of all is how thin the walls and floors are.  You can easily hear people talking and walking above and around you.While we were here, they were renting many of the rooms to foreign exchange students who are working in the local amusement parks/attractions.  Like most normal exchange students, they were partying through the night (which did not mix well with the very thin walls). To their credit, the management did cut us a break on the room rate when we complained of our largely sleepless night.  The students are apparently scheduled to be here through early September, so I'd definitely avoid the place at least until then.More</t>
+  </si>
+  <si>
+    <t>Eric C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r132003269-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
@@ -1956,6 +2172,9 @@
 We checked on the wifi, and it's an additional charge to access theirs. Really? If McDonald's and Starbucks...From the moment we walked into this place, we knew it wouldn't be good. Over the course of the evening, it turned out to be exactly what we'd thought...Due to extenuating circumstances, we had been forced into hotel living. The hotel we had been staying at was going through a forced power outage and was closing for 24 hours. We ended up here because it was cheaper than any of the other local hotels that accept pets, a major concern for us.When we booked, we arranged an early check-in, because of the pets. We walked into the lobby less than 10 minutes before noon, the agreed upon check-in time. Now, I do get that an agreement is an agreement, but would five minutes really end the world? Apparently so, as the "gentleman" behind the counter refused to check us in until after noon, at that point just 5 minutes away. Had he explained that the computers wouldn't allow an earlier check-in, we would not have blinked, and quietly waited. The attitude we got from the "gentleman" was absolutely ridiculous, though...and a harbinger for what was to come.We finally get to the room, and as my girlfriend put it, "it's my college dorm, only smaller". Dark, dingy carpets, gold walls...really? Gold walls? Could you be any uglier if you tried? We checked on the wifi, and it's an additional charge to access theirs. Really? If McDonald's and Starbucks can offer free wifi, why can't a national hotel chain? Especially one that doesn't have to offer amenities like bath supplies or coffee in the room...we paid the fee, but only after our good friend refused to allow us to put it on the credit card used to secure the room. We generally don't use credit cards, so a family member secured the room for us, and we'll reimburse them after the bill is closed, as we have many times in the past. To be told we can't add any charges because "we were specifically told not to allow anything to be charged to the room", when we knew that was not true...well, that guaranteed a crappy rating right there. The kitchenette was about as expected, which to say moderately clean, with functional appliances. Did I say functional? If you count a refrigerator with a motor that sounds like it's ready to explode functional, than you're good to go. The bathroom was tiny, with a crappy shower head and no water pressure. The lighting in there was functional, but not especially bright.The furniture is brutal, with the exception of the recliner in the corner. That was decent...the office chair provided for the "desk" would have been good except for the very questionable stain on the seat. The other furniture was stuff you'd expect to see at the local Goodwill, which makes perfect sense, since the local Goodwill is right across the street. Now let's talk about the "bed". I've slept on more comfortable concrete...and queen size? I don't think so. I'm a pretty big guy, and we own a queen bed ourselves. I can't lay in the middle of our bed and hang my feet off each side of it like I can this thing. Oddly enough, I could easily do it on the double bed I slept in before I moved in with my girlfriend...I'm writing this at 1am, as I just can't find a comfortable spot on the bed, and have moved to the recliner to try to make myself more tired...we'll see how the requested late check-out goes, and how easy or difficult the check-out process is...10:21 am - The late check-out went well, and the process itself was painless. I will say that the staff has been very friendly, with the aforementioned exception. The girl running the desk in particular was very friendly, smiling to everyone she saw. Anthony, the general manager, was incredibly helpful, and was one of the only saving graces to an experience endured, not enjoyed.Needless to say, this is an adventure never to be repeated...More</t>
   </si>
   <si>
+    <t>C B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r130371837-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1983,6 +2202,9 @@
     <t>I had a wonderful time during my stay in the hotel. I was surprised to find the hotel had just undergone a renovation and the room was very nice. The bed was new and very comfortable and the hotel staff were very friendly and helpful.More</t>
   </si>
   <si>
+    <t>BigDUB369</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r130371688-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
   </si>
   <si>
@@ -1996,6 +2218,9 @@
   </si>
   <si>
     <t>Very nice hotel! Service was great. Great location as well. Not far from anything that you'd need. Room was clean and well kept. I'll be staying there again soon for sure! Just an overall amazing place with great staff and rooms! :)More</t>
+  </si>
+  <si>
+    <t>Lilbit5002</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g580458-d472269-r130010255-Extended_Stay_America_Los_Angeles_Valencia-Stevenson_Ranch_Santa_Clarita_Californ.html</t>
@@ -2518,43 +2743,47 @@
       <c r="A2" t="n">
         <v>39698</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146461</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -2572,56 +2801,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>39698</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>5511</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2639,56 +2872,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>39698</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146462</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2706,56 +2943,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>39698</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>3450</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2777,56 +3018,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>39698</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146463</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2848,56 +3093,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>39698</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146464</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2919,56 +3168,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>39698</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>6580</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2980,56 +3233,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39698</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146465</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3041,56 +3298,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>39698</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>8110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3102,56 +3363,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>39698</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>6846</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3173,56 +3438,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>39698</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146466</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3244,56 +3513,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>39698</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>55848</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3315,56 +3588,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>39698</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>146467</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3386,56 +3663,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>39698</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146468</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3457,56 +3738,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>39698</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146469</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3528,56 +3813,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="X16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>39698</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146470</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3595,56 +3884,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>39698</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146471</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3656,56 +3949,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>39698</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146472</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="O19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3721,56 +4018,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="X19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="Y19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>39698</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146473</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3784,56 +4085,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>39698</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3851,56 +4156,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="X21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>39698</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146474</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3918,56 +4227,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="X22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="Y22" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>39698</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C23" t="s">
+        <v>250</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="J23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="K23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3983,47 +4296,51 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="X23" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="Y23" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>39698</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146475</v>
+      </c>
+      <c r="C24" t="s">
+        <v>260</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="J24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="K24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="L24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
@@ -4040,56 +4357,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="X24" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="Y24" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>39698</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146476</v>
+      </c>
+      <c r="C25" t="s">
+        <v>269</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="J25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="K25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="L25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4109,50 +4430,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>39698</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146477</v>
+      </c>
+      <c r="C26" t="s">
+        <v>276</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4168,56 +4493,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="X26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="Y26" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>39698</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146478</v>
+      </c>
+      <c r="C27" t="s">
+        <v>287</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="J27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="L27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4229,56 +4558,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="X27" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="Y27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>39698</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146479</v>
+      </c>
+      <c r="C28" t="s">
+        <v>294</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="J28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="K28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4290,56 +4623,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="Y28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>39698</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>378</v>
+      </c>
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="J29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4351,56 +4688,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>39698</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>57940</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="L30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4418,56 +4759,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="X30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="Y30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>39698</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146480</v>
+      </c>
+      <c r="C31" t="s">
+        <v>321</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="J31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="K31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="L31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4481,50 +4826,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>39698</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146481</v>
+      </c>
+      <c r="C32" t="s">
+        <v>327</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="K32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="L32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="O32" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4540,47 +4889,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="X32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>39698</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146482</v>
+      </c>
+      <c r="C33" t="s">
+        <v>337</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="K33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
@@ -4607,56 +4960,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="X33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="Y33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>39698</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>10687</v>
+      </c>
+      <c r="C34" t="s">
+        <v>346</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="J34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="K34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="L34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="O34" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4668,56 +5025,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="X34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Y34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>39698</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146483</v>
+      </c>
+      <c r="C35" t="s">
+        <v>356</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="J35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="K35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="L35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="O35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4733,56 +5094,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="X35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="Y35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>39698</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>43889</v>
+      </c>
+      <c r="C36" t="s">
+        <v>366</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="J36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="K36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="L36" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4798,56 +5163,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="Y36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>39698</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146484</v>
+      </c>
+      <c r="C37" t="s">
+        <v>376</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="J37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="K37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="L37" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="O37" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4869,56 +5238,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="X37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="Y37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>39698</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146485</v>
+      </c>
+      <c r="C38" t="s">
+        <v>386</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="J38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="K38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="L38" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="O38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4942,50 +5315,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>39698</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146486</v>
+      </c>
+      <c r="C39" t="s">
+        <v>394</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="J39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="K39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="L39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4997,56 +5374,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="X39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="Y39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>39698</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>58729</v>
+      </c>
+      <c r="C40" t="s">
+        <v>404</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="J40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="K40" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="L40" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -5070,50 +5451,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>39698</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146487</v>
+      </c>
+      <c r="C41" t="s">
+        <v>411</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="J41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="K41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="L41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="O41" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -5135,47 +5520,51 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="X41" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="Y41" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>39698</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>5292</v>
+      </c>
+      <c r="C42" t="s">
+        <v>420</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="J42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="K42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="L42" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
@@ -5202,56 +5591,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="X42" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="Y42" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>39698</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>41216</v>
+      </c>
+      <c r="C43" t="s">
+        <v>429</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="K43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="L43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5275,50 +5668,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39698</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>21874</v>
+      </c>
+      <c r="C44" t="s">
+        <v>436</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="J44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="K44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="L44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5340,47 +5737,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="X44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="Y44" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>39698</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146488</v>
+      </c>
+      <c r="C45" t="s">
+        <v>446</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="J45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="K45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="L45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
@@ -5409,50 +5810,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>39698</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>16892</v>
+      </c>
+      <c r="C46" t="s">
+        <v>452</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="J46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="K46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="L46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="O46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5464,56 +5869,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="X46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="Y46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>39698</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>20459</v>
+      </c>
+      <c r="C47" t="s">
+        <v>462</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="J47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="K47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="L47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="O47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5535,56 +5944,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="X47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="Y47" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>39698</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>123356</v>
+      </c>
+      <c r="C48" t="s">
+        <v>472</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="J48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="K48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="L48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="O48" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5608,50 +6021,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>39698</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146489</v>
+      </c>
+      <c r="C49" t="s">
+        <v>479</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="J49" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="K49" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="L49" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="O49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5673,56 +6090,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="X49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="Y49" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>39698</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146490</v>
+      </c>
+      <c r="C50" t="s">
+        <v>488</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="J50" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="K50" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="L50" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5744,56 +6165,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="X50" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="Y50" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>39698</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146491</v>
+      </c>
+      <c r="C51" t="s">
+        <v>498</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="J51" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="K51" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="L51" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5815,47 +6240,51 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="X51" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="Y51" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>39698</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146492</v>
+      </c>
+      <c r="C52" t="s">
+        <v>507</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="J52" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="K52" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="L52" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -5882,47 +6311,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="X52" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="Y52" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>39698</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146493</v>
+      </c>
+      <c r="C53" t="s">
+        <v>516</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="J53" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="K53" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="L53" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
@@ -5951,50 +6384,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>39698</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>11746</v>
+      </c>
+      <c r="C54" t="s">
+        <v>522</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="J54" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="K54" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="L54" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>1</v>
@@ -6016,56 +6453,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="X54" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="Y54" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>39698</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>90240</v>
+      </c>
+      <c r="C55" t="s">
+        <v>530</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="J55" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="K55" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="L55" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6087,56 +6528,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="X55" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="Y55" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>39698</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146494</v>
+      </c>
+      <c r="C56" t="s">
+        <v>539</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="J56" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="K56" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="L56" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6158,56 +6603,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="X56" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="Y56" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>39698</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146495</v>
+      </c>
+      <c r="C57" t="s">
+        <v>549</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="J57" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="K57" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="L57" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6229,56 +6678,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="X57" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Y57" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>39698</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146496</v>
+      </c>
+      <c r="C58" t="s">
+        <v>558</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="J58" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="K58" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="L58" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="O58" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6290,47 +6743,51 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="X58" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Y58" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>39698</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146497</v>
+      </c>
+      <c r="C59" t="s">
+        <v>566</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="J59" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="K59" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="L59" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
@@ -6357,56 +6814,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="X59" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="Y59" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>39698</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146498</v>
+      </c>
+      <c r="C60" t="s">
+        <v>575</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="J60" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="K60" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="L60" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O60" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6428,56 +6889,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="X60" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="Y60" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>39698</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146499</v>
+      </c>
+      <c r="C61" t="s">
+        <v>582</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>524</v>
+        <v>584</v>
       </c>
       <c r="J61" t="s">
-        <v>525</v>
+        <v>585</v>
       </c>
       <c r="K61" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="L61" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6499,56 +6964,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="X61" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="Y61" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>39698</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>106580</v>
+      </c>
+      <c r="C62" t="s">
+        <v>592</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="J62" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="K62" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="L62" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="O62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6570,47 +7039,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="X62" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="Y62" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>39698</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146500</v>
+      </c>
+      <c r="C63" t="s">
+        <v>602</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="J63" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="K63" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="L63" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6637,47 +7110,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="X63" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="Y63" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>39698</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146501</v>
+      </c>
+      <c r="C64" t="s">
+        <v>609</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
       <c r="J64" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="K64" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="L64" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6704,56 +7181,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="X64" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="Y64" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>39698</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146502</v>
+      </c>
+      <c r="C65" t="s">
+        <v>618</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="J65" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="K65" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="L65" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6775,56 +7256,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="X65" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="Y65" t="s">
-        <v>563</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>39698</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>32265</v>
+      </c>
+      <c r="C66" t="s">
+        <v>628</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="J66" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="K66" t="s">
-        <v>567</v>
+        <v>632</v>
       </c>
       <c r="L66" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6846,56 +7331,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="X66" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="Y66" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>39698</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146503</v>
+      </c>
+      <c r="C67" t="s">
+        <v>638</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="J67" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
       <c r="K67" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
       <c r="L67" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6917,47 +7406,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="X67" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="Y67" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>39698</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>146504</v>
+      </c>
+      <c r="C68" t="s">
+        <v>646</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>580</v>
+        <v>647</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>581</v>
+        <v>648</v>
       </c>
       <c r="J68" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
       <c r="K68" t="s">
-        <v>583</v>
+        <v>650</v>
       </c>
       <c r="L68" t="s">
-        <v>584</v>
+        <v>651</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -6984,56 +7477,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="X68" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="Y68" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>39698</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146505</v>
+      </c>
+      <c r="C69" t="s">
+        <v>655</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="J69" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="K69" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
       <c r="L69" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="O69" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
@@ -7055,56 +7552,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="X69" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="Y69" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>39698</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>18900</v>
+      </c>
+      <c r="C70" t="s">
+        <v>665</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="J70" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="K70" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="L70" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
       <c r="O70" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7126,56 +7627,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="X70" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="Y70" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>39698</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146506</v>
+      </c>
+      <c r="C71" t="s">
+        <v>673</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="J71" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="K71" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="L71" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>1</v>
@@ -7197,56 +7702,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="X71" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="Y71" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>39698</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146507</v>
+      </c>
+      <c r="C72" t="s">
+        <v>683</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="J72" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="K72" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="L72" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -7268,56 +7777,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="X72" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="Y72" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>39698</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>4806</v>
+      </c>
+      <c r="C73" t="s">
+        <v>690</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="J73" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="K73" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="L73" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7339,56 +7852,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="X73" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
       <c r="Y73" t="s">
-        <v>627</v>
+        <v>699</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>39698</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>12609</v>
+      </c>
+      <c r="C74" t="s">
+        <v>700</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="J74" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="K74" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="L74" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="O74" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7410,56 +7927,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="X74" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="Y74" t="s">
-        <v>636</v>
+        <v>709</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>39698</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146508</v>
+      </c>
+      <c r="C75" t="s">
+        <v>710</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="J75" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="K75" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="L75" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="O75" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7481,47 +8002,51 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="X75" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="Y75" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>39698</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>146509</v>
+      </c>
+      <c r="C76" t="s">
+        <v>716</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="J76" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="K76" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="L76" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
@@ -7548,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="X76" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
       <c r="Y76" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_265.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_265.xlsx
@@ -2744,7 +2744,7 @@
         <v>39698</v>
       </c>
       <c r="B2" t="n">
-        <v>146461</v>
+        <v>177803</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2886,7 +2886,7 @@
         <v>39698</v>
       </c>
       <c r="B4" t="n">
-        <v>146462</v>
+        <v>177804</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -3032,7 +3032,7 @@
         <v>39698</v>
       </c>
       <c r="B6" t="n">
-        <v>146463</v>
+        <v>177805</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -3107,7 +3107,7 @@
         <v>39698</v>
       </c>
       <c r="B7" t="n">
-        <v>146464</v>
+        <v>177806</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -3247,7 +3247,7 @@
         <v>39698</v>
       </c>
       <c r="B9" t="n">
-        <v>146465</v>
+        <v>177807</v>
       </c>
       <c r="C9" t="s">
         <v>119</v>
@@ -3452,7 +3452,7 @@
         <v>39698</v>
       </c>
       <c r="B12" t="n">
-        <v>146466</v>
+        <v>177808</v>
       </c>
       <c r="C12" t="s">
         <v>146</v>
@@ -3602,7 +3602,7 @@
         <v>39698</v>
       </c>
       <c r="B14" t="n">
-        <v>146467</v>
+        <v>177809</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -3677,7 +3677,7 @@
         <v>39698</v>
       </c>
       <c r="B15" t="n">
-        <v>146468</v>
+        <v>177810</v>
       </c>
       <c r="C15" t="s">
         <v>173</v>
@@ -3752,7 +3752,7 @@
         <v>39698</v>
       </c>
       <c r="B16" t="n">
-        <v>146469</v>
+        <v>177811</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
@@ -3827,7 +3827,7 @@
         <v>39698</v>
       </c>
       <c r="B17" t="n">
-        <v>146470</v>
+        <v>177812</v>
       </c>
       <c r="C17" t="s">
         <v>192</v>
@@ -3898,7 +3898,7 @@
         <v>39698</v>
       </c>
       <c r="B18" t="n">
-        <v>146471</v>
+        <v>177813</v>
       </c>
       <c r="C18" t="s">
         <v>202</v>
@@ -3963,7 +3963,7 @@
         <v>39698</v>
       </c>
       <c r="B19" t="n">
-        <v>146472</v>
+        <v>177814</v>
       </c>
       <c r="C19" t="s">
         <v>212</v>
@@ -4032,7 +4032,7 @@
         <v>39698</v>
       </c>
       <c r="B20" t="n">
-        <v>146473</v>
+        <v>177815</v>
       </c>
       <c r="C20" t="s">
         <v>222</v>
@@ -4170,7 +4170,7 @@
         <v>39698</v>
       </c>
       <c r="B22" t="n">
-        <v>146474</v>
+        <v>177816</v>
       </c>
       <c r="C22" t="s">
         <v>241</v>
@@ -4310,7 +4310,7 @@
         <v>39698</v>
       </c>
       <c r="B24" t="n">
-        <v>146475</v>
+        <v>177817</v>
       </c>
       <c r="C24" t="s">
         <v>260</v>
@@ -4371,7 +4371,7 @@
         <v>39698</v>
       </c>
       <c r="B25" t="n">
-        <v>146476</v>
+        <v>177818</v>
       </c>
       <c r="C25" t="s">
         <v>269</v>
@@ -4438,7 +4438,7 @@
         <v>39698</v>
       </c>
       <c r="B26" t="n">
-        <v>146477</v>
+        <v>177819</v>
       </c>
       <c r="C26" t="s">
         <v>276</v>
@@ -4507,7 +4507,7 @@
         <v>39698</v>
       </c>
       <c r="B27" t="n">
-        <v>146478</v>
+        <v>177820</v>
       </c>
       <c r="C27" t="s">
         <v>287</v>
@@ -4572,7 +4572,7 @@
         <v>39698</v>
       </c>
       <c r="B28" t="n">
-        <v>146479</v>
+        <v>177821</v>
       </c>
       <c r="C28" t="s">
         <v>294</v>
@@ -4773,7 +4773,7 @@
         <v>39698</v>
       </c>
       <c r="B31" t="n">
-        <v>146480</v>
+        <v>177822</v>
       </c>
       <c r="C31" t="s">
         <v>321</v>
@@ -4834,7 +4834,7 @@
         <v>39698</v>
       </c>
       <c r="B32" t="n">
-        <v>146481</v>
+        <v>177823</v>
       </c>
       <c r="C32" t="s">
         <v>327</v>
@@ -4903,7 +4903,7 @@
         <v>39698</v>
       </c>
       <c r="B33" t="n">
-        <v>146482</v>
+        <v>177824</v>
       </c>
       <c r="C33" t="s">
         <v>337</v>
@@ -5039,7 +5039,7 @@
         <v>39698</v>
       </c>
       <c r="B35" t="n">
-        <v>146483</v>
+        <v>177825</v>
       </c>
       <c r="C35" t="s">
         <v>356</v>
@@ -5177,7 +5177,7 @@
         <v>39698</v>
       </c>
       <c r="B37" t="n">
-        <v>146484</v>
+        <v>177826</v>
       </c>
       <c r="C37" t="s">
         <v>376</v>
@@ -5252,7 +5252,7 @@
         <v>39698</v>
       </c>
       <c r="B38" t="n">
-        <v>146485</v>
+        <v>177827</v>
       </c>
       <c r="C38" t="s">
         <v>386</v>
@@ -5323,7 +5323,7 @@
         <v>39698</v>
       </c>
       <c r="B39" t="n">
-        <v>146486</v>
+        <v>177828</v>
       </c>
       <c r="C39" t="s">
         <v>394</v>
@@ -5459,7 +5459,7 @@
         <v>39698</v>
       </c>
       <c r="B41" t="n">
-        <v>146487</v>
+        <v>177829</v>
       </c>
       <c r="C41" t="s">
         <v>411</v>
@@ -5751,7 +5751,7 @@
         <v>39698</v>
       </c>
       <c r="B45" t="n">
-        <v>146488</v>
+        <v>177830</v>
       </c>
       <c r="C45" t="s">
         <v>446</v>
@@ -6029,7 +6029,7 @@
         <v>39698</v>
       </c>
       <c r="B49" t="n">
-        <v>146489</v>
+        <v>149387</v>
       </c>
       <c r="C49" t="s">
         <v>479</v>
@@ -6104,7 +6104,7 @@
         <v>39698</v>
       </c>
       <c r="B50" t="n">
-        <v>146490</v>
+        <v>177831</v>
       </c>
       <c r="C50" t="s">
         <v>488</v>
@@ -6179,7 +6179,7 @@
         <v>39698</v>
       </c>
       <c r="B51" t="n">
-        <v>146491</v>
+        <v>177832</v>
       </c>
       <c r="C51" t="s">
         <v>498</v>
@@ -6254,7 +6254,7 @@
         <v>39698</v>
       </c>
       <c r="B52" t="n">
-        <v>146492</v>
+        <v>177833</v>
       </c>
       <c r="C52" t="s">
         <v>507</v>
@@ -6325,7 +6325,7 @@
         <v>39698</v>
       </c>
       <c r="B53" t="n">
-        <v>146493</v>
+        <v>177834</v>
       </c>
       <c r="C53" t="s">
         <v>516</v>
@@ -6542,7 +6542,7 @@
         <v>39698</v>
       </c>
       <c r="B56" t="n">
-        <v>146494</v>
+        <v>177835</v>
       </c>
       <c r="C56" t="s">
         <v>539</v>
@@ -6617,7 +6617,7 @@
         <v>39698</v>
       </c>
       <c r="B57" t="n">
-        <v>146495</v>
+        <v>177836</v>
       </c>
       <c r="C57" t="s">
         <v>549</v>
@@ -6692,7 +6692,7 @@
         <v>39698</v>
       </c>
       <c r="B58" t="n">
-        <v>146496</v>
+        <v>177837</v>
       </c>
       <c r="C58" t="s">
         <v>558</v>
@@ -6757,7 +6757,7 @@
         <v>39698</v>
       </c>
       <c r="B59" t="n">
-        <v>146497</v>
+        <v>177838</v>
       </c>
       <c r="C59" t="s">
         <v>566</v>
@@ -6828,7 +6828,7 @@
         <v>39698</v>
       </c>
       <c r="B60" t="n">
-        <v>146498</v>
+        <v>177839</v>
       </c>
       <c r="C60" t="s">
         <v>575</v>
@@ -6903,7 +6903,7 @@
         <v>39698</v>
       </c>
       <c r="B61" t="n">
-        <v>146499</v>
+        <v>177840</v>
       </c>
       <c r="C61" t="s">
         <v>582</v>
@@ -7053,7 +7053,7 @@
         <v>39698</v>
       </c>
       <c r="B63" t="n">
-        <v>146500</v>
+        <v>177841</v>
       </c>
       <c r="C63" t="s">
         <v>602</v>
@@ -7124,7 +7124,7 @@
         <v>39698</v>
       </c>
       <c r="B64" t="n">
-        <v>146501</v>
+        <v>177842</v>
       </c>
       <c r="C64" t="s">
         <v>609</v>
@@ -7195,7 +7195,7 @@
         <v>39698</v>
       </c>
       <c r="B65" t="n">
-        <v>146502</v>
+        <v>177843</v>
       </c>
       <c r="C65" t="s">
         <v>618</v>
@@ -7345,7 +7345,7 @@
         <v>39698</v>
       </c>
       <c r="B67" t="n">
-        <v>146503</v>
+        <v>177844</v>
       </c>
       <c r="C67" t="s">
         <v>638</v>
@@ -7420,7 +7420,7 @@
         <v>39698</v>
       </c>
       <c r="B68" t="n">
-        <v>146504</v>
+        <v>177845</v>
       </c>
       <c r="C68" t="s">
         <v>646</v>
@@ -7491,7 +7491,7 @@
         <v>39698</v>
       </c>
       <c r="B69" t="n">
-        <v>146505</v>
+        <v>177846</v>
       </c>
       <c r="C69" t="s">
         <v>655</v>
@@ -7641,7 +7641,7 @@
         <v>39698</v>
       </c>
       <c r="B71" t="n">
-        <v>146506</v>
+        <v>177847</v>
       </c>
       <c r="C71" t="s">
         <v>673</v>
@@ -7716,7 +7716,7 @@
         <v>39698</v>
       </c>
       <c r="B72" t="n">
-        <v>146507</v>
+        <v>177848</v>
       </c>
       <c r="C72" t="s">
         <v>683</v>
@@ -7941,7 +7941,7 @@
         <v>39698</v>
       </c>
       <c r="B75" t="n">
-        <v>146508</v>
+        <v>177849</v>
       </c>
       <c r="C75" t="s">
         <v>710</v>
@@ -8016,7 +8016,7 @@
         <v>39698</v>
       </c>
       <c r="B76" t="n">
-        <v>146509</v>
+        <v>177850</v>
       </c>
       <c r="C76" t="s">
         <v>716</v>
